--- a/BackTest/2019-10-08 BackTest INS.xlsx
+++ b/BackTest/2019-10-08 BackTest INS.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>16</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-6.666666666666667</v>
+      </c>
       <c r="L12" t="n">
         <v>244.1</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>17</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>6.666666666666667</v>
+      </c>
       <c r="L13" t="n">
         <v>244.1</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>17</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>6.666666666666667</v>
+      </c>
       <c r="L14" t="n">
         <v>244.2</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>19</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>6.666666666666667</v>
+      </c>
       <c r="L15" t="n">
         <v>244.1</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>20</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-23.07692307692308</v>
+      </c>
       <c r="L16" t="n">
         <v>244.1</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>20</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L17" t="n">
         <v>243.8</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>21</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-9.090909090909092</v>
+      </c>
       <c r="L18" t="n">
         <v>243.5</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>21</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-20</v>
+      </c>
       <c r="L19" t="n">
         <v>243.4</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>22</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>243.1</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>22</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>243.1</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>23</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L22" t="n">
         <v>243</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>24</v>
       </c>
       <c r="K23" t="n">
-        <v>-13.04347826086956</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L23" t="n">
         <v>242.7</v>
@@ -1466,7 +1488,7 @@
         <v>26</v>
       </c>
       <c r="K24" t="n">
-        <v>-16.66666666666666</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L24" t="n">
         <v>242.2</v>
@@ -1515,7 +1537,7 @@
         <v>28</v>
       </c>
       <c r="K25" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>242.1</v>
@@ -1662,7 +1684,7 @@
         <v>28</v>
       </c>
       <c r="K28" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L28" t="n">
         <v>242</v>
@@ -1711,7 +1733,7 @@
         <v>29</v>
       </c>
       <c r="K29" t="n">
-        <v>-15.78947368421053</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L29" t="n">
         <v>241.8</v>
@@ -1760,7 +1782,7 @@
         <v>30</v>
       </c>
       <c r="K30" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>241.8</v>
@@ -1809,7 +1831,7 @@
         <v>30</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L31" t="n">
         <v>241.8</v>
@@ -1860,7 +1882,7 @@
         <v>30</v>
       </c>
       <c r="K32" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>241.7</v>
@@ -1911,7 +1933,7 @@
         <v>30</v>
       </c>
       <c r="K33" t="n">
-        <v>-23.07692307692308</v>
+        <v>50</v>
       </c>
       <c r="L33" t="n">
         <v>241.7</v>
@@ -1962,7 +1984,7 @@
         <v>31</v>
       </c>
       <c r="K34" t="n">
-        <v>-14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L34" t="n">
         <v>242</v>
@@ -2013,7 +2035,7 @@
         <v>31</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L35" t="n">
         <v>242.1</v>
@@ -2115,7 +2137,7 @@
         <v>33</v>
       </c>
       <c r="K37" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L37" t="n">
         <v>242.2</v>
@@ -2166,7 +2188,7 @@
         <v>34</v>
       </c>
       <c r="K38" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L38" t="n">
         <v>242.2</v>
@@ -2217,7 +2239,7 @@
         <v>35</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L39" t="n">
         <v>242.4</v>
@@ -2319,7 +2341,7 @@
         <v>37</v>
       </c>
       <c r="K41" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L41" t="n">
         <v>242.5</v>
@@ -2370,7 +2392,7 @@
         <v>39</v>
       </c>
       <c r="K42" t="n">
-        <v>-12.5</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L42" t="n">
         <v>242.4</v>
@@ -2421,7 +2443,7 @@
         <v>41</v>
       </c>
       <c r="K43" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>242.5</v>
@@ -2472,7 +2494,7 @@
         <v>42</v>
       </c>
       <c r="K44" t="n">
-        <v>12.5</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L44" t="n">
         <v>242.4</v>
@@ -2523,7 +2545,7 @@
         <v>43</v>
       </c>
       <c r="K45" t="n">
-        <v>-6.666666666666667</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L45" t="n">
         <v>242.2</v>
@@ -2574,7 +2596,7 @@
         <v>44</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L46" t="n">
         <v>242.2</v>
@@ -2676,7 +2698,7 @@
         <v>44</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L48" t="n">
         <v>242.1</v>
@@ -2727,7 +2749,7 @@
         <v>45</v>
       </c>
       <c r="K49" t="n">
-        <v>12.5</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L49" t="n">
         <v>242.1</v>
@@ -2778,7 +2800,7 @@
         <v>46</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L50" t="n">
         <v>242.1</v>
@@ -2829,7 +2851,7 @@
         <v>46</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L51" t="n">
         <v>242</v>
@@ -2880,7 +2902,7 @@
         <v>46</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L52" t="n">
         <v>242.1</v>
@@ -2982,7 +3004,7 @@
         <v>46</v>
       </c>
       <c r="K54" t="n">
-        <v>-6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L54" t="n">
         <v>242</v>
@@ -3033,7 +3055,7 @@
         <v>46</v>
       </c>
       <c r="K55" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>242.1</v>
@@ -3084,7 +3106,7 @@
         <v>47</v>
       </c>
       <c r="K56" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L56" t="n">
         <v>242</v>
@@ -3135,7 +3157,7 @@
         <v>49</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L57" t="n">
         <v>242.1</v>
@@ -3186,7 +3208,7 @@
         <v>50</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L58" t="n">
         <v>242.1</v>
@@ -3237,7 +3259,7 @@
         <v>50</v>
       </c>
       <c r="K59" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>242</v>
@@ -3288,7 +3310,7 @@
         <v>51</v>
       </c>
       <c r="K60" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L60" t="n">
         <v>242.1</v>
@@ -3339,7 +3361,7 @@
         <v>53</v>
       </c>
       <c r="K61" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L61" t="n">
         <v>242</v>
@@ -3390,7 +3412,7 @@
         <v>53</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L62" t="n">
         <v>241.9</v>
@@ -3441,7 +3463,7 @@
         <v>53</v>
       </c>
       <c r="K63" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L63" t="n">
         <v>241.8</v>
@@ -3492,7 +3514,7 @@
         <v>54</v>
       </c>
       <c r="K64" t="n">
-        <v>-16.66666666666666</v>
+        <v>-25</v>
       </c>
       <c r="L64" t="n">
         <v>241.6</v>
@@ -3594,7 +3616,7 @@
         <v>56</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L66" t="n">
         <v>241.6</v>
@@ -3747,7 +3769,7 @@
         <v>56</v>
       </c>
       <c r="K69" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L69" t="n">
         <v>241.5</v>
@@ -3798,7 +3820,7 @@
         <v>56</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L70" t="n">
         <v>241.4</v>
@@ -3849,7 +3871,7 @@
         <v>56</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L71" t="n">
         <v>241.5</v>
@@ -3900,7 +3922,7 @@
         <v>56</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L72" t="n">
         <v>241.6</v>
@@ -3951,7 +3973,7 @@
         <v>56</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L73" t="n">
         <v>241.7</v>
@@ -4002,7 +4024,7 @@
         <v>57</v>
       </c>
       <c r="K74" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>241.8</v>
@@ -4053,7 +4075,7 @@
         <v>57</v>
       </c>
       <c r="K75" t="n">
-        <v>-9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L75" t="n">
         <v>241.8</v>
@@ -4104,7 +4126,7 @@
         <v>57</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L76" t="n">
         <v>241.7</v>
@@ -4155,7 +4177,7 @@
         <v>57</v>
       </c>
       <c r="K77" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L77" t="n">
         <v>241.6</v>
@@ -4206,7 +4228,7 @@
         <v>57</v>
       </c>
       <c r="K78" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L78" t="n">
         <v>241.5</v>
@@ -4257,7 +4279,7 @@
         <v>57</v>
       </c>
       <c r="K79" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L79" t="n">
         <v>241.4</v>
@@ -4308,7 +4330,7 @@
         <v>57</v>
       </c>
       <c r="K80" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L80" t="n">
         <v>241.3</v>
@@ -4359,7 +4381,7 @@
         <v>58</v>
       </c>
       <c r="K81" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>241.3</v>
@@ -4410,7 +4432,7 @@
         <v>59</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L82" t="n">
         <v>241.2</v>
@@ -4461,7 +4483,7 @@
         <v>60</v>
       </c>
       <c r="K83" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L83" t="n">
         <v>241.2</v>
@@ -4563,7 +4585,7 @@
         <v>62</v>
       </c>
       <c r="K85" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L85" t="n">
         <v>241.2</v>
@@ -4614,7 +4636,7 @@
         <v>64</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L86" t="n">
         <v>241.3</v>
@@ -4665,7 +4687,7 @@
         <v>66</v>
       </c>
       <c r="K87" t="n">
-        <v>-20</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L87" t="n">
         <v>241.2</v>
@@ -4716,7 +4738,7 @@
         <v>66</v>
       </c>
       <c r="K88" t="n">
-        <v>-20</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L88" t="n">
         <v>241.1</v>
@@ -4767,7 +4789,7 @@
         <v>66</v>
       </c>
       <c r="K89" t="n">
-        <v>-20</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L89" t="n">
         <v>241</v>
@@ -4869,7 +4891,7 @@
         <v>70</v>
       </c>
       <c r="K91" t="n">
-        <v>-14.28571428571428</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L91" t="n">
         <v>240.9</v>
@@ -4920,7 +4942,7 @@
         <v>71</v>
       </c>
       <c r="K92" t="n">
-        <v>-20</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L92" t="n">
         <v>240.7</v>
@@ -4971,7 +4993,7 @@
         <v>72</v>
       </c>
       <c r="K93" t="n">
-        <v>-12.5</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L93" t="n">
         <v>240.5</v>
@@ -5022,7 +5044,7 @@
         <v>72</v>
       </c>
       <c r="K94" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>240.3</v>
@@ -5073,7 +5095,7 @@
         <v>72</v>
       </c>
       <c r="K95" t="n">
-        <v>-6.666666666666667</v>
+        <v>-25</v>
       </c>
       <c r="L95" t="n">
         <v>240.3</v>
@@ -5124,7 +5146,7 @@
         <v>72</v>
       </c>
       <c r="K96" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>240.1</v>
@@ -5175,7 +5197,7 @@
         <v>73</v>
       </c>
       <c r="K97" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L97" t="n">
         <v>240</v>
@@ -5226,7 +5248,7 @@
         <v>73</v>
       </c>
       <c r="K98" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L98" t="n">
         <v>239.9</v>
@@ -5277,7 +5299,7 @@
         <v>74</v>
       </c>
       <c r="K99" t="n">
-        <v>-5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L99" t="n">
         <v>239.9</v>
@@ -5328,7 +5350,7 @@
         <v>74</v>
       </c>
       <c r="K100" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>239.7</v>
@@ -5379,7 +5401,7 @@
         <v>75</v>
       </c>
       <c r="K101" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>239.6</v>
@@ -5430,7 +5452,7 @@
         <v>76</v>
       </c>
       <c r="K102" t="n">
-        <v>-17.64705882352941</v>
+        <v>-50</v>
       </c>
       <c r="L102" t="n">
         <v>239.5</v>
@@ -5481,7 +5503,7 @@
         <v>77</v>
       </c>
       <c r="K103" t="n">
-        <v>-17.64705882352941</v>
+        <v>-20</v>
       </c>
       <c r="L103" t="n">
         <v>239.4</v>
@@ -5532,7 +5554,7 @@
         <v>78</v>
       </c>
       <c r="K104" t="n">
-        <v>-22.22222222222222</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L104" t="n">
         <v>239.2</v>
@@ -5583,7 +5605,7 @@
         <v>79</v>
       </c>
       <c r="K105" t="n">
-        <v>-5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L105" t="n">
         <v>239.1</v>
@@ -5634,7 +5656,7 @@
         <v>80</v>
       </c>
       <c r="K106" t="n">
-        <v>-12.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L106" t="n">
         <v>239.1</v>
@@ -5685,7 +5707,7 @@
         <v>81</v>
       </c>
       <c r="K107" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>239.1</v>
@@ -5787,7 +5809,7 @@
         <v>85</v>
       </c>
       <c r="K109" t="n">
-        <v>-15.78947368421053</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L109" t="n">
         <v>238.9</v>
@@ -5838,7 +5860,7 @@
         <v>87</v>
       </c>
       <c r="K110" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>238.8</v>
@@ -5889,7 +5911,7 @@
         <v>88</v>
       </c>
       <c r="K111" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>238.7</v>
@@ -5940,7 +5962,7 @@
         <v>88</v>
       </c>
       <c r="K112" t="n">
-        <v>-5.88235294117647</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L112" t="n">
         <v>238.7</v>
@@ -5991,7 +6013,7 @@
         <v>88</v>
       </c>
       <c r="K113" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
         <v>238.6</v>
@@ -6042,7 +6064,7 @@
         <v>89</v>
       </c>
       <c r="K114" t="n">
-        <v>-17.64705882352941</v>
+        <v>-20</v>
       </c>
       <c r="L114" t="n">
         <v>238.5</v>
@@ -6093,7 +6115,7 @@
         <v>90</v>
       </c>
       <c r="K115" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L115" t="n">
         <v>238.4</v>
@@ -6144,7 +6166,7 @@
         <v>91</v>
       </c>
       <c r="K116" t="n">
-        <v>-15.78947368421053</v>
+        <v>-20</v>
       </c>
       <c r="L116" t="n">
         <v>238.1</v>
@@ -6195,7 +6217,7 @@
         <v>91</v>
       </c>
       <c r="K117" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L117" t="n">
         <v>237.9</v>
@@ -6246,7 +6268,7 @@
         <v>92</v>
       </c>
       <c r="K118" t="n">
-        <v>-5.263157894736842</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L118" t="n">
         <v>237.7</v>
@@ -6297,7 +6319,7 @@
         <v>93</v>
       </c>
       <c r="K119" t="n">
-        <v>-15.78947368421053</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L119" t="n">
         <v>237.7</v>
@@ -6348,7 +6370,7 @@
         <v>95</v>
       </c>
       <c r="K120" t="n">
-        <v>-4.761904761904762</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L120" t="n">
         <v>237.7</v>
@@ -6399,7 +6421,7 @@
         <v>97</v>
       </c>
       <c r="K121" t="n">
-        <v>-9.090909090909092</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L121" t="n">
         <v>237.6</v>
@@ -6450,7 +6472,7 @@
         <v>97</v>
       </c>
       <c r="K122" t="n">
-        <v>-4.761904761904762</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L122" t="n">
         <v>237.5</v>
@@ -6501,7 +6523,7 @@
         <v>98</v>
       </c>
       <c r="K123" t="n">
-        <v>-4.761904761904762</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L123" t="n">
         <v>237.5</v>
@@ -6603,7 +6625,7 @@
         <v>99</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L125" t="n">
         <v>237.7</v>
@@ -6654,7 +6676,7 @@
         <v>99</v>
       </c>
       <c r="K126" t="n">
-        <v>-5.263157894736842</v>
+        <v>25</v>
       </c>
       <c r="L126" t="n">
         <v>237.9</v>
@@ -6705,7 +6727,7 @@
         <v>101</v>
       </c>
       <c r="K127" t="n">
-        <v>-10</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L127" t="n">
         <v>237.9</v>
@@ -6756,7 +6778,7 @@
         <v>102</v>
       </c>
       <c r="K128" t="n">
-        <v>-20</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L128" t="n">
         <v>237.7</v>
@@ -6807,7 +6829,7 @@
         <v>103</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L129" t="n">
         <v>237.7</v>
@@ -6858,7 +6880,7 @@
         <v>104</v>
       </c>
       <c r="K130" t="n">
-        <v>-17.64705882352941</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L130" t="n">
         <v>237.4</v>
@@ -6909,7 +6931,7 @@
         <v>105</v>
       </c>
       <c r="K131" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>237.4</v>
@@ -6960,7 +6982,7 @@
         <v>106</v>
       </c>
       <c r="K132" t="n">
-        <v>-11.11111111111111</v>
+        <v>-25</v>
       </c>
       <c r="L132" t="n">
         <v>237.3</v>
@@ -7011,7 +7033,7 @@
         <v>106</v>
       </c>
       <c r="K133" t="n">
-        <v>-11.11111111111111</v>
+        <v>-25</v>
       </c>
       <c r="L133" t="n">
         <v>237.1</v>
@@ -7062,7 +7084,7 @@
         <v>108</v>
       </c>
       <c r="K134" t="n">
-        <v>-15.78947368421053</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L134" t="n">
         <v>236.7</v>
@@ -7113,7 +7135,7 @@
         <v>111</v>
       </c>
       <c r="K135" t="n">
-        <v>-4.761904761904762</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L135" t="n">
         <v>236.5</v>
@@ -7215,7 +7237,7 @@
         <v>112</v>
       </c>
       <c r="K137" t="n">
-        <v>4.761904761904762</v>
+        <v>20</v>
       </c>
       <c r="L137" t="n">
         <v>236.4</v>
@@ -7266,7 +7288,7 @@
         <v>113</v>
       </c>
       <c r="K138" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>236.5</v>
@@ -7317,7 +7339,7 @@
         <v>113</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L139" t="n">
         <v>236.5</v>
@@ -7368,7 +7390,7 @@
         <v>113</v>
       </c>
       <c r="K140" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>236.6</v>
@@ -7419,7 +7441,7 @@
         <v>114</v>
       </c>
       <c r="K141" t="n">
-        <v>5.88235294117647</v>
+        <v>25</v>
       </c>
       <c r="L141" t="n">
         <v>236.7</v>
@@ -7470,7 +7492,7 @@
         <v>115</v>
       </c>
       <c r="K142" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L142" t="n">
         <v>237</v>
@@ -7521,7 +7543,7 @@
         <v>120</v>
       </c>
       <c r="K143" t="n">
-        <v>-18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
         <v>236.8</v>
@@ -7572,7 +7594,7 @@
         <v>120</v>
       </c>
       <c r="K144" t="n">
-        <v>-18.18181818181818</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L144" t="n">
         <v>236.8</v>
@@ -7623,7 +7645,7 @@
         <v>124</v>
       </c>
       <c r="K145" t="n">
-        <v>-4</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L145" t="n">
         <v>236.9</v>
@@ -7776,7 +7798,7 @@
         <v>125</v>
       </c>
       <c r="K148" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L148" t="n">
         <v>236.8</v>
@@ -7878,7 +7900,7 @@
         <v>126</v>
       </c>
       <c r="K150" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L150" t="n">
         <v>236.9</v>
@@ -7929,7 +7951,7 @@
         <v>127</v>
       </c>
       <c r="K151" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L151" t="n">
         <v>237</v>
@@ -7980,7 +8002,7 @@
         <v>127</v>
       </c>
       <c r="K152" t="n">
-        <v>14.28571428571428</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L152" t="n">
         <v>237</v>
@@ -8031,7 +8053,7 @@
         <v>129</v>
       </c>
       <c r="K153" t="n">
-        <v>21.73913043478261</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L153" t="n">
         <v>237.7</v>
@@ -8082,7 +8104,7 @@
         <v>133</v>
       </c>
       <c r="K154" t="n">
-        <v>44</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L154" t="n">
         <v>238.8</v>
@@ -8133,7 +8155,7 @@
         <v>133</v>
       </c>
       <c r="K155" t="n">
-        <v>36.36363636363637</v>
+        <v>100</v>
       </c>
       <c r="L155" t="n">
         <v>239.5</v>
@@ -8184,7 +8206,7 @@
         <v>133</v>
       </c>
       <c r="K156" t="n">
-        <v>36.36363636363637</v>
+        <v>100</v>
       </c>
       <c r="L156" t="n">
         <v>240.3</v>
@@ -8235,7 +8257,7 @@
         <v>137</v>
       </c>
       <c r="K157" t="n">
-        <v>12</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L157" t="n">
         <v>240.7</v>
@@ -8286,7 +8308,7 @@
         <v>141</v>
       </c>
       <c r="K158" t="n">
-        <v>28.57142857142857</v>
+        <v>50</v>
       </c>
       <c r="L158" t="n">
         <v>241.5</v>
@@ -8337,7 +8359,7 @@
         <v>142</v>
       </c>
       <c r="K159" t="n">
-        <v>31.03448275862069</v>
+        <v>50</v>
       </c>
       <c r="L159" t="n">
         <v>242.4</v>
@@ -8388,7 +8410,7 @@
         <v>146</v>
       </c>
       <c r="K160" t="n">
-        <v>39.39393939393939</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L160" t="n">
         <v>243.6</v>
@@ -8439,7 +8461,7 @@
         <v>146</v>
       </c>
       <c r="K161" t="n">
-        <v>37.5</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L161" t="n">
         <v>244.7</v>
@@ -8490,7 +8512,7 @@
         <v>148</v>
       </c>
       <c r="K162" t="n">
-        <v>39.39393939393939</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L162" t="n">
         <v>246</v>
@@ -8541,7 +8563,7 @@
         <v>149</v>
       </c>
       <c r="K163" t="n">
-        <v>58.62068965517241</v>
+        <v>37.5</v>
       </c>
       <c r="L163" t="n">
         <v>247</v>
@@ -8592,7 +8614,7 @@
         <v>150</v>
       </c>
       <c r="K164" t="n">
-        <v>53.33333333333334</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L164" t="n">
         <v>247.5</v>
@@ -8643,7 +8665,7 @@
         <v>154</v>
       </c>
       <c r="K165" t="n">
-        <v>53.33333333333334</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L165" t="n">
         <v>248.4</v>
@@ -8694,7 +8716,7 @@
         <v>154</v>
       </c>
       <c r="K166" t="n">
-        <v>58.62068965517241</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="L166" t="n">
         <v>249.3</v>
@@ -8745,7 +8767,7 @@
         <v>154</v>
       </c>
       <c r="K167" t="n">
-        <v>58.62068965517241</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L167" t="n">
         <v>250.6</v>
@@ -8796,7 +8818,7 @@
         <v>155</v>
       </c>
       <c r="K168" t="n">
-        <v>53.33333333333334</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L168" t="n">
         <v>251.4</v>
@@ -8847,7 +8869,7 @@
         <v>156</v>
       </c>
       <c r="K169" t="n">
-        <v>54.83870967741935</v>
+        <v>40</v>
       </c>
       <c r="L169" t="n">
         <v>252.2</v>
@@ -8898,7 +8920,7 @@
         <v>157</v>
       </c>
       <c r="K170" t="n">
-        <v>54.83870967741935</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L170" t="n">
         <v>252.7</v>
@@ -8949,7 +8971,7 @@
         <v>159</v>
       </c>
       <c r="K171" t="n">
-        <v>56.25</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L171" t="n">
         <v>253.4</v>
@@ -9000,7 +9022,7 @@
         <v>160</v>
       </c>
       <c r="K172" t="n">
-        <v>57.57575757575758</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L172" t="n">
         <v>254</v>
@@ -9051,7 +9073,7 @@
         <v>161</v>
       </c>
       <c r="K173" t="n">
-        <v>56.25</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L173" t="n">
         <v>254.8</v>
@@ -9102,7 +9124,7 @@
         <v>163</v>
       </c>
       <c r="K174" t="n">
-        <v>53.33333333333334</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L174" t="n">
         <v>255.9</v>
@@ -9153,7 +9175,7 @@
         <v>164</v>
       </c>
       <c r="K175" t="n">
-        <v>48.38709677419355</v>
+        <v>60</v>
       </c>
       <c r="L175" t="n">
         <v>256.5</v>
@@ -9204,7 +9226,7 @@
         <v>164</v>
       </c>
       <c r="K176" t="n">
-        <v>48.38709677419355</v>
+        <v>60</v>
       </c>
       <c r="L176" t="n">
         <v>257.1</v>
@@ -9255,7 +9277,7 @@
         <v>164</v>
       </c>
       <c r="K177" t="n">
-        <v>70.37037037037037</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L177" t="n">
         <v>257.7</v>
@@ -9306,7 +9328,7 @@
         <v>166</v>
       </c>
       <c r="K178" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="L178" t="n">
         <v>258.2</v>
@@ -9357,7 +9379,7 @@
         <v>168</v>
       </c>
       <c r="K179" t="n">
-        <v>53.84615384615385</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L179" t="n">
         <v>258.8</v>
@@ -9408,7 +9430,7 @@
         <v>168</v>
       </c>
       <c r="K180" t="n">
-        <v>45.45454545454545</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L180" t="n">
         <v>259.3</v>
@@ -9459,7 +9481,7 @@
         <v>170</v>
       </c>
       <c r="K181" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L181" t="n">
         <v>259.8</v>
@@ -9510,7 +9532,7 @@
         <v>174</v>
       </c>
       <c r="K182" t="n">
-        <v>23.07692307692308</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L182" t="n">
         <v>259.8</v>
@@ -9561,7 +9583,7 @@
         <v>176</v>
       </c>
       <c r="K183" t="n">
-        <v>33.33333333333333</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L183" t="n">
         <v>259.9</v>
@@ -9612,7 +9634,7 @@
         <v>177</v>
       </c>
       <c r="K184" t="n">
-        <v>33.33333333333333</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L184" t="n">
         <v>259.7</v>
@@ -9663,7 +9685,7 @@
         <v>181</v>
       </c>
       <c r="K185" t="n">
-        <v>3.703703703703703</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L185" t="n">
         <v>259.2</v>
@@ -9714,7 +9736,7 @@
         <v>183</v>
       </c>
       <c r="K186" t="n">
-        <v>10.3448275862069</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L186" t="n">
         <v>258.9</v>
@@ -9765,7 +9787,7 @@
         <v>184</v>
       </c>
       <c r="K187" t="n">
-        <v>13.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>258.7</v>
@@ -9816,7 +9838,7 @@
         <v>187</v>
       </c>
       <c r="K188" t="n">
-        <v>6.25</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L188" t="n">
         <v>258.4</v>
@@ -9867,7 +9889,7 @@
         <v>187</v>
       </c>
       <c r="K189" t="n">
-        <v>3.225806451612903</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L189" t="n">
         <v>257.9</v>
@@ -9918,7 +9940,7 @@
         <v>187</v>
       </c>
       <c r="K190" t="n">
-        <v>0</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L190" t="n">
         <v>257.4</v>
@@ -9969,7 +9991,7 @@
         <v>189</v>
       </c>
       <c r="K191" t="n">
-        <v>0</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L191" t="n">
         <v>256.9</v>
@@ -10020,7 +10042,7 @@
         <v>193</v>
       </c>
       <c r="K192" t="n">
-        <v>-15.15151515151515</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L192" t="n">
         <v>256.4</v>
@@ -10071,7 +10093,7 @@
         <v>197</v>
       </c>
       <c r="K193" t="n">
-        <v>-27.77777777777778</v>
+        <v>-50</v>
       </c>
       <c r="L193" t="n">
         <v>255.3</v>
@@ -10122,7 +10144,7 @@
         <v>198</v>
       </c>
       <c r="K194" t="n">
-        <v>-31.42857142857143</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L194" t="n">
         <v>254.4</v>
@@ -10173,7 +10195,7 @@
         <v>198</v>
       </c>
       <c r="K195" t="n">
-        <v>-29.41176470588236</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L195" t="n">
         <v>253.9</v>
@@ -10224,7 +10246,7 @@
         <v>198</v>
       </c>
       <c r="K196" t="n">
-        <v>-29.41176470588236</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L196" t="n">
         <v>253.2</v>
@@ -10275,7 +10297,7 @@
         <v>202</v>
       </c>
       <c r="K197" t="n">
-        <v>-15.78947368421053</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L197" t="n">
         <v>252.8</v>
@@ -10326,7 +10348,7 @@
         <v>203</v>
       </c>
       <c r="K198" t="n">
-        <v>-13.51351351351351</v>
+        <v>-12.5</v>
       </c>
       <c r="L198" t="n">
         <v>252.6</v>
@@ -10377,7 +10399,7 @@
         <v>204</v>
       </c>
       <c r="K199" t="n">
-        <v>-16.66666666666666</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L199" t="n">
         <v>252.5</v>
@@ -10428,7 +10450,7 @@
         <v>205</v>
       </c>
       <c r="K200" t="n">
-        <v>-13.51351351351351</v>
+        <v>-12.5</v>
       </c>
       <c r="L200" t="n">
         <v>252.5</v>
@@ -10479,7 +10501,7 @@
         <v>206</v>
       </c>
       <c r="K201" t="n">
-        <v>-16.66666666666666</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L201" t="n">
         <v>252.4</v>
@@ -10530,7 +10552,7 @@
         <v>206</v>
       </c>
       <c r="K202" t="n">
-        <v>-6.25</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L202" t="n">
         <v>252.7</v>
@@ -10581,7 +10603,7 @@
         <v>207</v>
       </c>
       <c r="K203" t="n">
-        <v>-9.67741935483871</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L203" t="n">
         <v>253.5</v>
@@ -10632,7 +10654,7 @@
         <v>208</v>
       </c>
       <c r="K204" t="n">
-        <v>-9.67741935483871</v>
+        <v>60</v>
       </c>
       <c r="L204" t="n">
         <v>254.1</v>
@@ -10683,7 +10705,7 @@
         <v>209</v>
       </c>
       <c r="K205" t="n">
-        <v>7.142857142857142</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L205" t="n">
         <v>254.8</v>
@@ -10734,7 +10756,7 @@
         <v>212</v>
       </c>
       <c r="K206" t="n">
-        <v>-10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L206" t="n">
         <v>255.2</v>
@@ -10785,7 +10807,7 @@
         <v>212</v>
       </c>
       <c r="K207" t="n">
-        <v>-14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L207" t="n">
         <v>255.2</v>
@@ -10836,7 +10858,7 @@
         <v>214</v>
       </c>
       <c r="K208" t="n">
-        <v>3.703703703703703</v>
+        <v>20</v>
       </c>
       <c r="L208" t="n">
         <v>255.5</v>
@@ -10887,7 +10909,7 @@
         <v>216</v>
       </c>
       <c r="K209" t="n">
-        <v>-3.448275862068965</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L209" t="n">
         <v>255.5</v>
@@ -10938,7 +10960,7 @@
         <v>216</v>
       </c>
       <c r="K210" t="n">
-        <v>-3.448275862068965</v>
+        <v>-20</v>
       </c>
       <c r="L210" t="n">
         <v>255.4</v>
@@ -10989,7 +11011,7 @@
         <v>217</v>
       </c>
       <c r="K211" t="n">
-        <v>-14.28571428571428</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L211" t="n">
         <v>255.1</v>
@@ -11040,7 +11062,7 @@
         <v>218</v>
       </c>
       <c r="K212" t="n">
-        <v>4</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L212" t="n">
         <v>254.9</v>
@@ -11091,7 +11113,7 @@
         <v>218</v>
       </c>
       <c r="K213" t="n">
-        <v>23.80952380952381</v>
+        <v>-20</v>
       </c>
       <c r="L213" t="n">
         <v>254.6</v>
@@ -11142,7 +11164,7 @@
         <v>221</v>
       </c>
       <c r="K214" t="n">
-        <v>30.43478260869566</v>
+        <v>0</v>
       </c>
       <c r="L214" t="n">
         <v>254.7</v>
@@ -11193,7 +11215,7 @@
         <v>228</v>
       </c>
       <c r="K215" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L215" t="n">
         <v>254</v>
@@ -11244,7 +11266,7 @@
         <v>229</v>
       </c>
       <c r="K216" t="n">
-        <v>-3.225806451612903</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L216" t="n">
         <v>253.5</v>
@@ -11295,7 +11317,7 @@
         <v>229</v>
       </c>
       <c r="K217" t="n">
-        <v>-18.51851851851852</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L217" t="n">
         <v>253</v>
@@ -11346,7 +11368,7 @@
         <v>234</v>
       </c>
       <c r="K218" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L218" t="n">
         <v>252.8</v>
@@ -11448,7 +11470,7 @@
         <v>234</v>
       </c>
       <c r="K220" t="n">
-        <v>-3.448275862068965</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L220" t="n">
         <v>252.8</v>
@@ -11499,7 +11521,7 @@
         <v>237</v>
       </c>
       <c r="K221" t="n">
-        <v>3.225806451612903</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L221" t="n">
         <v>253.2</v>
@@ -11550,7 +11572,7 @@
         <v>238</v>
       </c>
       <c r="K222" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L222" t="n">
         <v>253.4</v>
@@ -11601,7 +11623,7 @@
         <v>238</v>
       </c>
       <c r="K223" t="n">
-        <v>-3.225806451612903</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L223" t="n">
         <v>253.6</v>
@@ -11652,7 +11674,7 @@
         <v>240</v>
       </c>
       <c r="K224" t="n">
-        <v>-6.25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L224" t="n">
         <v>253.3</v>
@@ -11703,7 +11725,7 @@
         <v>244</v>
       </c>
       <c r="K225" t="n">
-        <v>-20</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L225" t="n">
         <v>253.3</v>
@@ -11754,7 +11776,7 @@
         <v>248</v>
       </c>
       <c r="K226" t="n">
-        <v>0</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L226" t="n">
         <v>253.8</v>
@@ -11805,7 +11827,7 @@
         <v>249</v>
       </c>
       <c r="K227" t="n">
-        <v>2.702702702702703</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L227" t="n">
         <v>254.4</v>
@@ -11856,7 +11878,7 @@
         <v>254</v>
       </c>
       <c r="K228" t="n">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="L228" t="n">
         <v>254</v>
@@ -11907,7 +11929,7 @@
         <v>256</v>
       </c>
       <c r="K229" t="n">
-        <v>-15</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L229" t="n">
         <v>253.4</v>
@@ -11958,7 +11980,7 @@
         <v>256</v>
       </c>
       <c r="K230" t="n">
-        <v>-15</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L230" t="n">
         <v>252.8</v>
@@ -12009,7 +12031,7 @@
         <v>258</v>
       </c>
       <c r="K231" t="n">
-        <v>-7.317073170731707</v>
+        <v>-30</v>
       </c>
       <c r="L231" t="n">
         <v>252.1</v>
@@ -12060,7 +12082,7 @@
         <v>259</v>
       </c>
       <c r="K232" t="n">
-        <v>-12.19512195121951</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L232" t="n">
         <v>251.4</v>
@@ -12111,7 +12133,7 @@
         <v>260</v>
       </c>
       <c r="K233" t="n">
-        <v>-14.28571428571428</v>
+        <v>-30</v>
       </c>
       <c r="L233" t="n">
         <v>250.6</v>
@@ -12162,7 +12184,7 @@
         <v>265</v>
       </c>
       <c r="K234" t="n">
-        <v>-9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L234" t="n">
         <v>250.5</v>
@@ -12213,7 +12235,7 @@
         <v>270</v>
       </c>
       <c r="K235" t="n">
-        <v>-4.761904761904762</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L235" t="n">
         <v>250.3</v>
@@ -12264,7 +12286,7 @@
         <v>275</v>
       </c>
       <c r="K236" t="n">
-        <v>8.695652173913043</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L236" t="n">
         <v>250.2</v>
@@ -12315,7 +12337,7 @@
         <v>279</v>
       </c>
       <c r="K237" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="L237" t="n">
         <v>249.6</v>
@@ -12366,7 +12388,7 @@
         <v>280</v>
       </c>
       <c r="K238" t="n">
-        <v>-13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L238" t="n">
         <v>249.4</v>
@@ -12417,7 +12439,7 @@
         <v>280</v>
       </c>
       <c r="K239" t="n">
-        <v>-13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L239" t="n">
         <v>249.4</v>
@@ -12468,7 +12490,7 @@
         <v>280</v>
       </c>
       <c r="K240" t="n">
-        <v>-13.04347826086956</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L240" t="n">
         <v>249.4</v>
@@ -12519,7 +12541,7 @@
         <v>282</v>
       </c>
       <c r="K241" t="n">
-        <v>-24.44444444444444</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L241" t="n">
         <v>249</v>
@@ -12570,7 +12592,7 @@
         <v>285</v>
       </c>
       <c r="K242" t="n">
-        <v>-14.8936170212766</v>
+        <v>4</v>
       </c>
       <c r="L242" t="n">
         <v>249</v>
@@ -12621,7 +12643,7 @@
         <v>286</v>
       </c>
       <c r="K243" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L243" t="n">
         <v>249.2</v>
@@ -12672,7 +12694,7 @@
         <v>287</v>
       </c>
       <c r="K244" t="n">
-        <v>-10.63829787234043</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L244" t="n">
         <v>248.8</v>
@@ -12723,7 +12745,7 @@
         <v>288</v>
       </c>
       <c r="K245" t="n">
-        <v>0</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L245" t="n">
         <v>249</v>
@@ -12774,7 +12796,7 @@
         <v>289</v>
       </c>
       <c r="K246" t="n">
-        <v>-7.317073170731707</v>
+        <v>20</v>
       </c>
       <c r="L246" t="n">
         <v>248.8</v>
@@ -12825,7 +12847,7 @@
         <v>290</v>
       </c>
       <c r="K247" t="n">
-        <v>-12.19512195121951</v>
+        <v>20</v>
       </c>
       <c r="L247" t="n">
         <v>248.9</v>
@@ -12876,7 +12898,7 @@
         <v>291</v>
       </c>
       <c r="K248" t="n">
-        <v>2.702702702702703</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L248" t="n">
         <v>249.2</v>
@@ -12927,7 +12949,7 @@
         <v>293</v>
       </c>
       <c r="K249" t="n">
-        <v>13.51351351351351</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L249" t="n">
         <v>249.7</v>
@@ -12978,7 +13000,7 @@
         <v>294</v>
       </c>
       <c r="K250" t="n">
-        <v>15.78947368421053</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L250" t="n">
         <v>250.3</v>
@@ -13029,7 +13051,7 @@
         <v>299</v>
       </c>
       <c r="K251" t="n">
-        <v>-2.439024390243902</v>
+        <v>0</v>
       </c>
       <c r="L251" t="n">
         <v>250.6</v>
@@ -13080,7 +13102,7 @@
         <v>301</v>
       </c>
       <c r="K252" t="n">
-        <v>4.761904761904762</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L252" t="n">
         <v>250.8</v>
@@ -13131,7 +13153,7 @@
         <v>301</v>
       </c>
       <c r="K253" t="n">
-        <v>7.317073170731707</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L253" t="n">
         <v>250.9</v>
@@ -13182,7 +13204,7 @@
         <v>302</v>
       </c>
       <c r="K254" t="n">
-        <v>-8.108108108108109</v>
+        <v>0</v>
       </c>
       <c r="L254" t="n">
         <v>251</v>
@@ -13233,7 +13255,7 @@
         <v>303</v>
       </c>
       <c r="K255" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L255" t="n">
         <v>251.1</v>
@@ -13284,7 +13306,7 @@
         <v>304</v>
       </c>
       <c r="K256" t="n">
-        <v>-10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L256" t="n">
         <v>251</v>
@@ -13335,7 +13357,7 @@
         <v>305</v>
       </c>
       <c r="K257" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L257" t="n">
         <v>251.1</v>
@@ -13386,7 +13408,7 @@
         <v>307</v>
       </c>
       <c r="K258" t="n">
-        <v>18.51851851851852</v>
+        <v>0</v>
       </c>
       <c r="L258" t="n">
         <v>251.3</v>
@@ -13437,7 +13459,7 @@
         <v>311</v>
       </c>
       <c r="K259" t="n">
-        <v>3.225806451612903</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L259" t="n">
         <v>250.9</v>
@@ -13488,7 +13510,7 @@
         <v>313</v>
       </c>
       <c r="K260" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L260" t="n">
         <v>250.6</v>
@@ -13539,7 +13561,7 @@
         <v>314</v>
       </c>
       <c r="K261" t="n">
-        <v>18.75</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L261" t="n">
         <v>250.9</v>
@@ -13590,7 +13612,7 @@
         <v>316</v>
       </c>
       <c r="K262" t="n">
-        <v>3.225806451612903</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L262" t="n">
         <v>250.8</v>
@@ -13641,7 +13663,7 @@
         <v>318</v>
       </c>
       <c r="K263" t="n">
-        <v>-6.25</v>
+        <v>-12.5</v>
       </c>
       <c r="L263" t="n">
         <v>250.5</v>
@@ -13692,7 +13714,7 @@
         <v>320</v>
       </c>
       <c r="K264" t="n">
-        <v>3.03030303030303</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L264" t="n">
         <v>250.5</v>
@@ -13743,7 +13765,7 @@
         <v>324</v>
       </c>
       <c r="K265" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L265" t="n">
         <v>250</v>
@@ -13794,7 +13816,7 @@
         <v>328</v>
       </c>
       <c r="K266" t="n">
-        <v>-2.564102564102564</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L266" t="n">
         <v>250</v>
@@ -13845,7 +13867,7 @@
         <v>330</v>
       </c>
       <c r="K267" t="n">
-        <v>5</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L267" t="n">
         <v>250.1</v>
@@ -13896,7 +13918,7 @@
         <v>331</v>
       </c>
       <c r="K268" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L268" t="n">
         <v>249.9</v>
@@ -13947,7 +13969,7 @@
         <v>332</v>
       </c>
       <c r="K269" t="n">
-        <v>-2.564102564102564</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L269" t="n">
         <v>250.2</v>
@@ -13998,7 +14020,7 @@
         <v>333</v>
       </c>
       <c r="K270" t="n">
-        <v>-7.692307692307693</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L270" t="n">
         <v>250.2</v>
@@ -14049,7 +14071,7 @@
         <v>334</v>
       </c>
       <c r="K271" t="n">
-        <v>2.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="L271" t="n">
         <v>250</v>
@@ -14100,7 +14122,7 @@
         <v>336</v>
       </c>
       <c r="K272" t="n">
-        <v>2.857142857142857</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L272" t="n">
         <v>250.2</v>
@@ -14202,7 +14224,7 @@
         <v>340</v>
       </c>
       <c r="K274" t="n">
-        <v>-5.263157894736842</v>
+        <v>12.5</v>
       </c>
       <c r="L274" t="n">
         <v>250.1</v>
@@ -14253,7 +14275,7 @@
         <v>344</v>
       </c>
       <c r="K275" t="n">
-        <v>2.439024390243902</v>
+        <v>12.5</v>
       </c>
       <c r="L275" t="n">
         <v>250.7</v>
@@ -14304,7 +14326,7 @@
         <v>345</v>
       </c>
       <c r="K276" t="n">
-        <v>2.439024390243902</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L276" t="n">
         <v>250.8</v>
@@ -14355,7 +14377,7 @@
         <v>348</v>
       </c>
       <c r="K277" t="n">
-        <v>-6.976744186046512</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L277" t="n">
         <v>250.4</v>
@@ -14406,7 +14428,7 @@
         <v>352</v>
       </c>
       <c r="K278" t="n">
-        <v>-2.222222222222222</v>
+        <v>0</v>
       </c>
       <c r="L278" t="n">
         <v>250.5</v>
@@ -14457,7 +14479,7 @@
         <v>353</v>
       </c>
       <c r="K279" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L279" t="n">
         <v>250.4</v>
@@ -14508,7 +14530,7 @@
         <v>355</v>
       </c>
       <c r="K280" t="n">
-        <v>4.761904761904762</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L280" t="n">
         <v>250.6</v>
@@ -14559,7 +14581,7 @@
         <v>360</v>
       </c>
       <c r="K281" t="n">
-        <v>-8.695652173913043</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L281" t="n">
         <v>250.4</v>
@@ -14610,7 +14632,7 @@
         <v>362</v>
       </c>
       <c r="K282" t="n">
-        <v>0</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L282" t="n">
         <v>250.2</v>
@@ -14661,7 +14683,7 @@
         <v>365</v>
       </c>
       <c r="K283" t="n">
-        <v>-2.127659574468085</v>
+        <v>-4</v>
       </c>
       <c r="L283" t="n">
         <v>250</v>
@@ -14712,7 +14734,7 @@
         <v>366</v>
       </c>
       <c r="K284" t="n">
-        <v>-4.347826086956522</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L284" t="n">
         <v>250</v>
@@ -14763,7 +14785,7 @@
         <v>366</v>
       </c>
       <c r="K285" t="n">
-        <v>4.761904761904762</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L285" t="n">
         <v>249.6</v>
@@ -14814,7 +14836,7 @@
         <v>366</v>
       </c>
       <c r="K286" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L286" t="n">
         <v>249.3</v>
@@ -14865,7 +14887,7 @@
         <v>368</v>
       </c>
       <c r="K287" t="n">
-        <v>-5.263157894736842</v>
+        <v>-12.5</v>
       </c>
       <c r="L287" t="n">
         <v>249.5</v>
@@ -14916,7 +14938,7 @@
         <v>371</v>
       </c>
       <c r="K288" t="n">
-        <v>-10</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L288" t="n">
         <v>249</v>

--- a/BackTest/2019-10-08 BackTest INS.xlsx
+++ b/BackTest/2019-10-08 BackTest INS.xlsx
@@ -4371,14 +4371,20 @@
         <v>240.45</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>238</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4406,14 +4412,20 @@
         <v>240.3833333333333</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>237</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4460,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4476,14 +4492,20 @@
         <v>240.2166666666667</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>237</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4517,12 +4539,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>238</v>
-      </c>
-      <c r="K118" t="n">
-        <v>238</v>
-      </c>
-      <c r="L118" t="inlineStr"/>
+        <v>237</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4556,14 +4580,12 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>237</v>
-      </c>
-      <c r="K119" t="n">
         <v>238</v>
       </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M119" t="n">
@@ -4593,20 +4615,16 @@
         <v>240</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>239</v>
-      </c>
-      <c r="K120" t="n">
-        <v>238</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M120" t="n">
@@ -4642,12 +4660,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>237</v>
-      </c>
-      <c r="K121" t="n">
-        <v>237</v>
-      </c>
-      <c r="L121" t="inlineStr"/>
+        <v>239</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4683,12 +4703,10 @@
       <c r="J122" t="n">
         <v>237</v>
       </c>
-      <c r="K122" t="n">
-        <v>237</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M122" t="n">
@@ -4724,14 +4742,12 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>238</v>
-      </c>
-      <c r="K123" t="n">
         <v>237</v>
       </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M123" t="n">
@@ -4769,10 +4785,12 @@
       <c r="J124" t="n">
         <v>238</v>
       </c>
-      <c r="K124" t="n">
-        <v>238</v>
-      </c>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4806,14 +4824,12 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>239</v>
-      </c>
-      <c r="K125" t="n">
         <v>238</v>
       </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M125" t="n">
@@ -4851,12 +4867,10 @@
       <c r="J126" t="n">
         <v>239</v>
       </c>
-      <c r="K126" t="n">
-        <v>238</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M126" t="n">
@@ -4892,12 +4906,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>237</v>
-      </c>
-      <c r="K127" t="n">
-        <v>237</v>
-      </c>
-      <c r="L127" t="inlineStr"/>
+        <v>239</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4925,20 +4941,16 @@
         <v>239.5166666666667</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>236</v>
-      </c>
-      <c r="K128" t="n">
-        <v>237</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M128" t="n">
@@ -4968,20 +4980,16 @@
         <v>239.4333333333333</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>237</v>
-      </c>
-      <c r="K129" t="n">
-        <v>237</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M129" t="n">
@@ -5011,18 +5019,18 @@
         <v>239.3333333333333</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>236</v>
-      </c>
-      <c r="K130" t="n">
-        <v>236</v>
-      </c>
-      <c r="L130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5050,20 +5058,16 @@
         <v>239.25</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>237</v>
-      </c>
-      <c r="K131" t="n">
-        <v>236</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M131" t="n">
@@ -5093,20 +5097,16 @@
         <v>239.15</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>236</v>
-      </c>
-      <c r="K132" t="n">
-        <v>236</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M132" t="n">
@@ -5136,18 +5136,18 @@
         <v>239.05</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>236</v>
-      </c>
-      <c r="K133" t="n">
-        <v>236</v>
-      </c>
-      <c r="L133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5175,20 +5175,16 @@
         <v>238.9333333333333</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>236</v>
-      </c>
-      <c r="K134" t="n">
-        <v>236</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M134" t="n">
@@ -5218,17 +5214,13 @@
         <v>238.8666666666667</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>237</v>
-      </c>
-      <c r="K135" t="n">
-        <v>236</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5261,17 +5253,13 @@
         <v>238.8</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>236</v>
-      </c>
-      <c r="K136" t="n">
-        <v>236</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5304,17 +5292,13 @@
         <v>238.75</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>238</v>
-      </c>
-      <c r="K137" t="n">
-        <v>236</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5347,17 +5331,13 @@
         <v>238.6833333333333</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>237</v>
-      </c>
-      <c r="K138" t="n">
-        <v>236</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5390,17 +5370,13 @@
         <v>238.6166666666667</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>237</v>
-      </c>
-      <c r="K139" t="n">
-        <v>236</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5433,17 +5409,13 @@
         <v>238.55</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>237</v>
-      </c>
-      <c r="K140" t="n">
-        <v>236</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5476,17 +5448,13 @@
         <v>238.4833333333333</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>238</v>
-      </c>
-      <c r="K141" t="n">
-        <v>236</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5519,17 +5487,13 @@
         <v>238.45</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>239</v>
-      </c>
-      <c r="K142" t="n">
-        <v>236</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5562,17 +5526,13 @@
         <v>238.3166666666667</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>235</v>
-      </c>
-      <c r="K143" t="n">
-        <v>236</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5605,17 +5565,13 @@
         <v>238.1833333333333</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>234</v>
-      </c>
-      <c r="K144" t="n">
-        <v>236</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5648,17 +5604,13 @@
         <v>238.15</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>238</v>
-      </c>
-      <c r="K145" t="n">
-        <v>236</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5691,17 +5643,13 @@
         <v>238.0666666666667</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>234</v>
-      </c>
-      <c r="K146" t="n">
-        <v>236</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5734,17 +5682,13 @@
         <v>238.0166666666667</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>234</v>
-      </c>
-      <c r="K147" t="n">
-        <v>236</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5777,17 +5721,13 @@
         <v>237.9666666666667</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>234</v>
-      </c>
-      <c r="K148" t="n">
-        <v>236</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5820,17 +5760,13 @@
         <v>237.9166666666667</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>237</v>
-      </c>
-      <c r="K149" t="n">
-        <v>236</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5863,17 +5799,13 @@
         <v>237.85</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>237</v>
-      </c>
-      <c r="K150" t="n">
-        <v>236</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5906,17 +5838,13 @@
         <v>237.8333333333333</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>239</v>
-      </c>
-      <c r="K151" t="n">
-        <v>236</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5949,17 +5877,13 @@
         <v>237.8333333333333</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>239</v>
-      </c>
-      <c r="K152" t="n">
-        <v>236</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5992,17 +5916,13 @@
         <v>237.85</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>239</v>
-      </c>
-      <c r="K153" t="n">
-        <v>236</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6035,17 +5955,13 @@
         <v>237.9333333333333</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>241</v>
-      </c>
-      <c r="K154" t="n">
-        <v>236</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6078,17 +5994,13 @@
         <v>238.0166666666667</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>245</v>
-      </c>
-      <c r="K155" t="n">
-        <v>236</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6127,9 +6039,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>236</v>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6165,20 +6075,16 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>236</v>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6209,14 +6115,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>236</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6250,14 +6150,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>236</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6291,14 +6185,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>236</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6332,14 +6220,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>236</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6373,14 +6255,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>236</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6414,14 +6290,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>236</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6455,14 +6325,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>236</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6496,14 +6360,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>236</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6537,14 +6395,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>236</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6575,17 +6427,11 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>236</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6616,17 +6462,11 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>236</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6660,14 +6500,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>236</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6701,14 +6535,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>236</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6742,14 +6570,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>236</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6783,14 +6605,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>236</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6824,14 +6640,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>236</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6865,16 +6675,10 @@
         <v>1</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>236</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
-        <v>1.100932203389831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -6903,7 +6707,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
@@ -6973,7 +6777,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
@@ -7008,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
@@ -7043,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
@@ -7078,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>

--- a/BackTest/2019-10-08 BackTest INS.xlsx
+++ b/BackTest/2019-10-08 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M267"/>
+  <dimension ref="A1:M268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C2" t="n">
         <v>244</v>
@@ -442,13 +442,13 @@
         <v>244</v>
       </c>
       <c r="E2" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F2" t="n">
-        <v>6081.5754</v>
+        <v>62.1639</v>
       </c>
       <c r="G2" t="n">
-        <v>238.9</v>
+        <v>238.7666666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C3" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D3" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E3" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>6081.5754</v>
       </c>
       <c r="G3" t="n">
-        <v>239</v>
+        <v>238.9</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C4" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D4" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E4" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F4" t="n">
-        <v>527.2328</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>239.0333333333333</v>
+        <v>239</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C5" t="n">
         <v>244</v>
@@ -547,13 +547,13 @@
         <v>244</v>
       </c>
       <c r="E5" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F5" t="n">
-        <v>1925.0491</v>
+        <v>527.2328</v>
       </c>
       <c r="G5" t="n">
-        <v>239.1</v>
+        <v>239.0333333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>244</v>
       </c>
       <c r="C6" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D6" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E6" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F6" t="n">
-        <v>15189.9984</v>
+        <v>1925.0491</v>
       </c>
       <c r="G6" t="n">
-        <v>239.1666666666667</v>
+        <v>239.1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C7" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D7" t="n">
         <v>245</v>
       </c>
       <c r="E7" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F7" t="n">
-        <v>3.2857</v>
+        <v>15189.9984</v>
       </c>
       <c r="G7" t="n">
-        <v>239.2833333333333</v>
+        <v>239.1666666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C8" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D8" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E8" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F8" t="n">
-        <v>1592.3157</v>
+        <v>3.2857</v>
       </c>
       <c r="G8" t="n">
-        <v>239.4166666666667</v>
+        <v>239.2833333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>244</v>
       </c>
       <c r="C9" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D9" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E9" t="n">
         <v>244</v>
       </c>
       <c r="F9" t="n">
-        <v>1215.0541</v>
+        <v>1592.3157</v>
       </c>
       <c r="G9" t="n">
-        <v>239.5166666666667</v>
+        <v>239.4166666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C10" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D10" t="n">
         <v>245</v>
@@ -725,10 +725,10 @@
         <v>244</v>
       </c>
       <c r="F10" t="n">
-        <v>177</v>
+        <v>1215.0541</v>
       </c>
       <c r="G10" t="n">
-        <v>239.6333333333333</v>
+        <v>239.5166666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C11" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D11" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E11" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="G11" t="n">
-        <v>239.7166666666667</v>
+        <v>239.6333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C12" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D12" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E12" t="n">
         <v>242</v>
       </c>
       <c r="F12" t="n">
-        <v>3.789</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>239.85</v>
+        <v>239.7166666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C13" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D13" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E13" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>3.789</v>
       </c>
       <c r="G13" t="n">
-        <v>240</v>
+        <v>239.85</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>245</v>
       </c>
       <c r="F14" t="n">
-        <v>955.0285</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>240.15</v>
+        <v>240</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C15" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D15" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E15" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>955.0285</v>
       </c>
       <c r="G15" t="n">
-        <v>240.2833333333333</v>
+        <v>240.15</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>243</v>
       </c>
       <c r="C16" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D16" t="n">
         <v>243</v>
       </c>
       <c r="E16" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F16" t="n">
-        <v>6132.3644</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>240.3833333333333</v>
+        <v>240.2833333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>242</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>6132.3644</v>
       </c>
       <c r="G17" t="n">
-        <v>240.45</v>
+        <v>240.3833333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>243</v>
       </c>
       <c r="C18" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D18" t="n">
         <v>243</v>
       </c>
       <c r="E18" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>240.5833333333333</v>
+        <v>240.45</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C19" t="n">
         <v>243</v>
@@ -1037,13 +1037,13 @@
         <v>243</v>
       </c>
       <c r="E19" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F19" t="n">
-        <v>1367.1256</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>240.6833333333333</v>
+        <v>240.5833333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>242</v>
       </c>
       <c r="C20" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D20" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E20" t="n">
         <v>242</v>
       </c>
       <c r="F20" t="n">
-        <v>1916.2364</v>
+        <v>1367.1256</v>
       </c>
       <c r="G20" t="n">
-        <v>240.8</v>
+        <v>240.6833333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>242</v>
       </c>
       <c r="E21" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F21" t="n">
-        <v>19757.6961</v>
+        <v>1916.2364</v>
       </c>
       <c r="G21" t="n">
-        <v>240.8833333333333</v>
+        <v>240.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C22" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E22" t="n">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>19757.6961</v>
       </c>
       <c r="G22" t="n">
-        <v>240.9833333333333</v>
+        <v>240.8833333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C23" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D23" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E23" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F23" t="n">
-        <v>261.87</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0666666666667</v>
+        <v>240.9833333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C24" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D24" t="n">
         <v>242</v>
       </c>
       <c r="E24" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F24" t="n">
-        <v>3917.7758</v>
+        <v>261.87</v>
       </c>
       <c r="G24" t="n">
-        <v>241.1166666666667</v>
+        <v>241.0666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>242</v>
       </c>
       <c r="C25" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D25" t="n">
         <v>242</v>
       </c>
       <c r="E25" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>3917.7758</v>
       </c>
       <c r="G25" t="n">
-        <v>241.2</v>
+        <v>241.1166666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C26" t="n">
         <v>242</v>
@@ -1282,13 +1282,13 @@
         <v>242</v>
       </c>
       <c r="E26" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F26" t="n">
-        <v>1091</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>241.2833333333333</v>
+        <v>241.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C27" t="n">
         <v>242</v>
@@ -1317,13 +1317,13 @@
         <v>242</v>
       </c>
       <c r="E27" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F27" t="n">
-        <v>163</v>
+        <v>1091</v>
       </c>
       <c r="G27" t="n">
-        <v>241.3666666666667</v>
+        <v>241.2833333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>242</v>
       </c>
       <c r="F28" t="n">
-        <v>1008.4</v>
+        <v>163</v>
       </c>
       <c r="G28" t="n">
-        <v>241.45</v>
+        <v>241.3666666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C29" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D29" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E29" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F29" t="n">
-        <v>1777</v>
+        <v>1008.4</v>
       </c>
       <c r="G29" t="n">
-        <v>241.5166666666667</v>
+        <v>241.45</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C30" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D30" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E30" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>1777</v>
       </c>
       <c r="G30" t="n">
-        <v>241.6333333333333</v>
+        <v>241.5166666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>242</v>
       </c>
       <c r="F31" t="n">
-        <v>2032</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7166666666667</v>
+        <v>241.6333333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>242</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>2032</v>
       </c>
       <c r="G32" t="n">
-        <v>241.7666666666667</v>
+        <v>241.7166666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>242</v>
       </c>
       <c r="F33" t="n">
-        <v>10721.0707</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>241.85</v>
+        <v>241.7666666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C34" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D34" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E34" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>10721.0707</v>
       </c>
       <c r="G34" t="n">
-        <v>241.9166666666667</v>
+        <v>241.85</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>243</v>
       </c>
       <c r="F35" t="n">
-        <v>366.93</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>242</v>
+        <v>241.9166666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C36" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D36" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E36" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F36" t="n">
-        <v>623</v>
+        <v>366.93</v>
       </c>
       <c r="G36" t="n">
-        <v>242.0666666666667</v>
+        <v>242</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C37" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D37" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E37" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>623</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1333333333333</v>
+        <v>242.0666666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C38" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D38" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E38" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F38" t="n">
-        <v>516</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>242.1833333333333</v>
+        <v>242.1333333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C39" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D39" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E39" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F39" t="n">
-        <v>1022.5507</v>
+        <v>516</v>
       </c>
       <c r="G39" t="n">
-        <v>242.2666666666667</v>
+        <v>242.1833333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C40" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D40" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E40" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F40" t="n">
-        <v>198</v>
+        <v>1022.5507</v>
       </c>
       <c r="G40" t="n">
-        <v>242.3166666666667</v>
+        <v>242.2666666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C41" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D41" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E41" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="G41" t="n">
-        <v>242.4</v>
+        <v>242.3166666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C42" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D42" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E42" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F42" t="n">
-        <v>131.8672</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>242.4333333333333</v>
+        <v>242.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C43" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D43" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E43" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>131.8672</v>
       </c>
       <c r="G43" t="n">
-        <v>242.5</v>
+        <v>242.4333333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C44" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D44" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E44" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F44" t="n">
-        <v>2629</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>242.55</v>
+        <v>242.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C45" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D45" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E45" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F45" t="n">
-        <v>2167.8672</v>
+        <v>2629</v>
       </c>
       <c r="G45" t="n">
-        <v>242.5833333333333</v>
+        <v>242.55</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C46" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D46" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E46" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>2167.8672</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6333333333333</v>
+        <v>242.5833333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>242</v>
       </c>
       <c r="F47" t="n">
-        <v>41.0781</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>242.6833333333333</v>
+        <v>242.6333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>242</v>
       </c>
       <c r="F48" t="n">
-        <v>141.76</v>
+        <v>41.0781</v>
       </c>
       <c r="G48" t="n">
-        <v>242.7166666666667</v>
+        <v>242.6833333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C49" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D49" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E49" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>141.76</v>
       </c>
       <c r="G49" t="n">
-        <v>242.7666666666667</v>
+        <v>242.7166666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,19 +2113,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C50" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D50" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E50" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F50" t="n">
-        <v>1041.5296</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>242.7666666666667</v>
@@ -2160,10 +2160,10 @@
         <v>242</v>
       </c>
       <c r="F51" t="n">
-        <v>1435</v>
+        <v>1041.5296</v>
       </c>
       <c r="G51" t="n">
-        <v>242.7833333333333</v>
+        <v>242.7666666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>242</v>
       </c>
       <c r="F52" t="n">
-        <v>1192.6624</v>
+        <v>1435</v>
       </c>
       <c r="G52" t="n">
-        <v>242.7666666666667</v>
+        <v>242.7833333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>242</v>
       </c>
       <c r="F53" t="n">
-        <v>154.93</v>
+        <v>1192.6624</v>
       </c>
       <c r="G53" t="n">
-        <v>242.75</v>
+        <v>242.7666666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>242</v>
       </c>
       <c r="F54" t="n">
-        <v>1443</v>
+        <v>154.93</v>
       </c>
       <c r="G54" t="n">
-        <v>242.7333333333333</v>
+        <v>242.75</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,7 +2288,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C55" t="n">
         <v>242</v>
@@ -2297,13 +2297,13 @@
         <v>242</v>
       </c>
       <c r="E55" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F55" t="n">
-        <v>553</v>
+        <v>1443</v>
       </c>
       <c r="G55" t="n">
-        <v>242.7166666666667</v>
+        <v>242.7333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>241</v>
       </c>
       <c r="C56" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D56" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E56" t="n">
         <v>241</v>
       </c>
       <c r="F56" t="n">
-        <v>659.6900000000001</v>
+        <v>553</v>
       </c>
       <c r="G56" t="n">
-        <v>242.6833333333333</v>
+        <v>242.7166666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,19 +2358,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C57" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D57" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E57" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>659.6900000000001</v>
       </c>
       <c r="G57" t="n">
         <v>242.6833333333333</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C58" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D58" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E58" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F58" t="n">
-        <v>126.1322</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>242.6666666666667</v>
+        <v>242.6833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>242</v>
       </c>
       <c r="F59" t="n">
-        <v>4</v>
+        <v>126.1322</v>
       </c>
       <c r="G59" t="n">
-        <v>242.65</v>
+        <v>242.6666666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C60" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D60" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E60" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G60" t="n">
-        <v>242.6333333333333</v>
+        <v>242.65</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C61" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D61" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E61" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F61" t="n">
-        <v>359</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>242.5833333333333</v>
+        <v>242.6333333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>241</v>
       </c>
       <c r="F62" t="n">
-        <v>1691.4632</v>
+        <v>359</v>
       </c>
       <c r="G62" t="n">
-        <v>242.5333333333333</v>
+        <v>242.5833333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>241</v>
       </c>
       <c r="F63" t="n">
-        <v>670</v>
+        <v>1691.4632</v>
       </c>
       <c r="G63" t="n">
-        <v>242.4666666666667</v>
+        <v>242.5333333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C64" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D64" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E64" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F64" t="n">
-        <v>1644.8532</v>
+        <v>670</v>
       </c>
       <c r="G64" t="n">
-        <v>242.4</v>
+        <v>242.4666666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2641,19 +2641,19 @@
         <v>240</v>
       </c>
       <c r="C65" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D65" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E65" t="n">
         <v>240</v>
       </c>
       <c r="F65" t="n">
-        <v>1457.4757</v>
+        <v>1644.8532</v>
       </c>
       <c r="G65" t="n">
-        <v>242.35</v>
+        <v>242.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,19 +2673,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>240</v>
+      </c>
+      <c r="C66" t="n">
         <v>241</v>
       </c>
-      <c r="C66" t="n">
-        <v>242</v>
-      </c>
       <c r="D66" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E66" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F66" t="n">
-        <v>10867.05</v>
+        <v>1457.4757</v>
       </c>
       <c r="G66" t="n">
         <v>242.35</v>
@@ -2708,7 +2708,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C67" t="n">
         <v>242</v>
@@ -2717,13 +2717,13 @@
         <v>242</v>
       </c>
       <c r="E67" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F67" t="n">
-        <v>725</v>
+        <v>10867.05</v>
       </c>
       <c r="G67" t="n">
-        <v>242.3</v>
+        <v>242.35</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>242</v>
       </c>
       <c r="F68" t="n">
-        <v>2172.3318</v>
+        <v>725</v>
       </c>
       <c r="G68" t="n">
-        <v>242.2333333333333</v>
+        <v>242.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>242</v>
       </c>
       <c r="F69" t="n">
-        <v>940</v>
+        <v>2172.3318</v>
       </c>
       <c r="G69" t="n">
-        <v>242.2</v>
+        <v>242.2333333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>242</v>
       </c>
       <c r="F70" t="n">
-        <v>1579</v>
+        <v>940</v>
       </c>
       <c r="G70" t="n">
-        <v>242.15</v>
+        <v>242.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>242</v>
       </c>
       <c r="F71" t="n">
-        <v>41.3223</v>
+        <v>1579</v>
       </c>
       <c r="G71" t="n">
         <v>242.15</v>
@@ -2895,10 +2895,10 @@
         <v>242</v>
       </c>
       <c r="F72" t="n">
-        <v>1667.8327</v>
+        <v>41.3223</v>
       </c>
       <c r="G72" t="n">
-        <v>242.1166666666667</v>
+        <v>242.15</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>242</v>
       </c>
       <c r="F73" t="n">
-        <v>3335.159</v>
+        <v>1667.8327</v>
       </c>
       <c r="G73" t="n">
-        <v>242.0666666666667</v>
+        <v>242.1166666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C74" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D74" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E74" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F74" t="n">
-        <v>318.6629</v>
+        <v>3335.159</v>
       </c>
       <c r="G74" t="n">
-        <v>242</v>
+        <v>242.0666666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>241</v>
       </c>
       <c r="F75" t="n">
-        <v>1681.3371</v>
+        <v>318.6629</v>
       </c>
       <c r="G75" t="n">
-        <v>241.9666666666667</v>
+        <v>242</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>241</v>
       </c>
       <c r="F76" t="n">
-        <v>500</v>
+        <v>1681.3371</v>
       </c>
       <c r="G76" t="n">
-        <v>241.95</v>
+        <v>241.9666666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>500</v>
       </c>
       <c r="G77" t="n">
-        <v>241.9333333333333</v>
+        <v>241.95</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>500</v>
       </c>
       <c r="G78" t="n">
-        <v>241.9</v>
+        <v>241.9333333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>241</v>
       </c>
       <c r="F79" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G79" t="n">
-        <v>241.8666666666667</v>
+        <v>241.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>241</v>
       </c>
       <c r="F80" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="G80" t="n">
-        <v>241.85</v>
+        <v>241.8666666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,19 +3198,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C81" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D81" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E81" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="G81" t="n">
         <v>241.85</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C82" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D82" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E82" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F82" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>241.8166666666667</v>
+        <v>241.85</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3271,16 +3271,16 @@
         <v>241</v>
       </c>
       <c r="C83" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D83" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E83" t="n">
         <v>241</v>
       </c>
       <c r="F83" t="n">
-        <v>5993.1445</v>
+        <v>200</v>
       </c>
       <c r="G83" t="n">
         <v>241.8166666666667</v>
@@ -3303,7 +3303,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C84" t="n">
         <v>242</v>
@@ -3312,13 +3312,13 @@
         <v>242</v>
       </c>
       <c r="E84" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F84" t="n">
-        <v>3962.9999</v>
+        <v>5993.1445</v>
       </c>
       <c r="G84" t="n">
-        <v>241.85</v>
+        <v>241.8166666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3341,19 +3341,19 @@
         <v>240</v>
       </c>
       <c r="C85" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D85" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E85" t="n">
         <v>240</v>
       </c>
       <c r="F85" t="n">
-        <v>350</v>
+        <v>3962.9999</v>
       </c>
       <c r="G85" t="n">
-        <v>241.8166666666667</v>
+        <v>241.85</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,19 +3373,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C86" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D86" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E86" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G86" t="n">
         <v>241.8166666666667</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C87" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D87" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E87" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F87" t="n">
-        <v>224.9515</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>241.7833333333333</v>
+        <v>241.8166666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,10 +3455,10 @@
         <v>240</v>
       </c>
       <c r="F88" t="n">
-        <v>272.5652</v>
+        <v>224.9515</v>
       </c>
       <c r="G88" t="n">
-        <v>241.75</v>
+        <v>241.7833333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>240</v>
       </c>
       <c r="F89" t="n">
-        <v>2171</v>
+        <v>272.5652</v>
       </c>
       <c r="G89" t="n">
-        <v>241.7333333333333</v>
+        <v>241.75</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,19 +3513,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C90" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D90" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E90" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>2171</v>
       </c>
       <c r="G90" t="n">
         <v>241.7333333333333</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C91" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D91" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E91" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F91" t="n">
-        <v>6220.3852</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>241.7</v>
+        <v>241.7333333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C92" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D92" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E92" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F92" t="n">
-        <v>952.6409</v>
+        <v>6220.3852</v>
       </c>
       <c r="G92" t="n">
-        <v>241.65</v>
+        <v>241.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C93" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D93" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E93" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>952.6409</v>
       </c>
       <c r="G93" t="n">
-        <v>241.6166666666667</v>
+        <v>241.65</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3668,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>241.5666666666667</v>
+        <v>241.6166666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C95" t="n">
         <v>240</v>
@@ -3697,13 +3697,13 @@
         <v>240</v>
       </c>
       <c r="E95" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F95" t="n">
-        <v>3001</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>241.5166666666667</v>
+        <v>241.5666666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C96" t="n">
         <v>240</v>
@@ -3732,13 +3732,13 @@
         <v>240</v>
       </c>
       <c r="E96" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>3001</v>
       </c>
       <c r="G96" t="n">
-        <v>241.4833333333333</v>
+        <v>241.5166666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C97" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D97" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E97" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F97" t="n">
-        <v>372</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>241.4166666666667</v>
+        <v>241.4833333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>239</v>
       </c>
       <c r="F98" t="n">
-        <v>681.6654</v>
+        <v>372</v>
       </c>
       <c r="G98" t="n">
-        <v>241.3666666666667</v>
+        <v>241.4166666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3831,19 +3831,19 @@
         <v>239</v>
       </c>
       <c r="C99" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D99" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E99" t="n">
         <v>239</v>
       </c>
       <c r="F99" t="n">
-        <v>31</v>
+        <v>681.6654</v>
       </c>
       <c r="G99" t="n">
-        <v>241.3166666666667</v>
+        <v>241.3666666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C100" t="n">
         <v>240</v>
@@ -3872,13 +3872,13 @@
         <v>240</v>
       </c>
       <c r="E100" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F100" t="n">
-        <v>1286</v>
+        <v>31</v>
       </c>
       <c r="G100" t="n">
-        <v>241.2833333333333</v>
+        <v>241.3166666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C101" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D101" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E101" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F101" t="n">
-        <v>3986.4456</v>
+        <v>1286</v>
       </c>
       <c r="G101" t="n">
-        <v>241.2166666666667</v>
+        <v>241.2833333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C102" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D102" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E102" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F102" t="n">
-        <v>2622.4276</v>
+        <v>3986.4456</v>
       </c>
       <c r="G102" t="n">
-        <v>241.1666666666667</v>
+        <v>241.2166666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C103" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D103" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E103" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F103" t="n">
-        <v>2</v>
+        <v>2622.4276</v>
       </c>
       <c r="G103" t="n">
-        <v>241.1</v>
+        <v>241.1666666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C104" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D104" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E104" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F104" t="n">
-        <v>18839.513</v>
+        <v>2</v>
       </c>
       <c r="G104" t="n">
-        <v>241.0333333333333</v>
+        <v>241.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C105" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D105" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E105" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F105" t="n">
-        <v>3</v>
+        <v>18839.513</v>
       </c>
       <c r="G105" t="n">
-        <v>241</v>
+        <v>241.0333333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4076,19 +4076,19 @@
         <v>239</v>
       </c>
       <c r="C106" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D106" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E106" t="n">
         <v>239</v>
       </c>
       <c r="F106" t="n">
-        <v>4389</v>
+        <v>3</v>
       </c>
       <c r="G106" t="n">
-        <v>240.9666666666667</v>
+        <v>241</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4111,19 +4111,19 @@
         <v>239</v>
       </c>
       <c r="C107" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D107" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E107" t="n">
         <v>239</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>4389</v>
       </c>
       <c r="G107" t="n">
-        <v>240.9166666666667</v>
+        <v>240.9666666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C108" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D108" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E108" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F108" t="n">
         <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>240.8833333333333</v>
+        <v>240.9166666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C109" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D109" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E109" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F109" t="n">
-        <v>565.4245</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>240.7833333333333</v>
+        <v>240.8833333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C110" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D110" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E110" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F110" t="n">
-        <v>10</v>
+        <v>565.4245</v>
       </c>
       <c r="G110" t="n">
-        <v>240.7333333333333</v>
+        <v>240.7833333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C111" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D111" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E111" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F111" t="n">
-        <v>328.9299</v>
+        <v>10</v>
       </c>
       <c r="G111" t="n">
-        <v>240.6666666666667</v>
+        <v>240.7333333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4295,10 +4295,10 @@
         <v>238</v>
       </c>
       <c r="F112" t="n">
-        <v>668.89</v>
+        <v>328.9299</v>
       </c>
       <c r="G112" t="n">
-        <v>240.6</v>
+        <v>240.6666666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,10 +4330,10 @@
         <v>238</v>
       </c>
       <c r="F113" t="n">
-        <v>328.79</v>
+        <v>668.89</v>
       </c>
       <c r="G113" t="n">
-        <v>240.5333333333333</v>
+        <v>240.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4356,35 +4356,29 @@
         <v>238</v>
       </c>
       <c r="C114" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D114" t="n">
         <v>238</v>
       </c>
       <c r="E114" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F114" t="n">
-        <v>17372.1979</v>
+        <v>328.79</v>
       </c>
       <c r="G114" t="n">
-        <v>240.45</v>
+        <v>240.5333333333333</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>238</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4397,35 +4391,29 @@
         <v>238</v>
       </c>
       <c r="C115" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D115" t="n">
         <v>238</v>
       </c>
       <c r="E115" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>17372.1979</v>
       </c>
       <c r="G115" t="n">
-        <v>240.3833333333333</v>
+        <v>240.45</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>237</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4435,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C116" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D116" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E116" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F116" t="n">
-        <v>172</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>240.3166666666667</v>
+        <v>240.3833333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4460,11 +4448,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4486,26 +4470,20 @@
         <v>237</v>
       </c>
       <c r="F117" t="n">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="G117" t="n">
-        <v>240.2166666666667</v>
+        <v>240.3166666666667</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>237</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4515,38 +4493,32 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C118" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D118" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E118" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="G118" t="n">
-        <v>240.15</v>
+        <v>240.2166666666667</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>237</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4556,38 +4528,32 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C119" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D119" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E119" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F119" t="n">
-        <v>859.5256000000001</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>240.0666666666667</v>
+        <v>240.15</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>238</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4597,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C120" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D120" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E120" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>859.5256000000001</v>
       </c>
       <c r="G120" t="n">
-        <v>240</v>
+        <v>240.0666666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4622,11 +4588,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4636,38 +4598,36 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>239</v>
+      </c>
+      <c r="C121" t="n">
+        <v>239</v>
+      </c>
+      <c r="D121" t="n">
+        <v>239</v>
+      </c>
+      <c r="E121" t="n">
+        <v>239</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" t="n">
+        <v>240</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
         <v>237</v>
       </c>
-      <c r="C121" t="n">
+      <c r="K121" t="n">
         <v>237</v>
       </c>
-      <c r="D121" t="n">
-        <v>237</v>
-      </c>
-      <c r="E121" t="n">
-        <v>237</v>
-      </c>
-      <c r="F121" t="n">
-        <v>450.9999</v>
-      </c>
-      <c r="G121" t="n">
-        <v>239.9333333333333</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>239</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4689,10 +4649,10 @@
         <v>237</v>
       </c>
       <c r="F122" t="n">
-        <v>238.85</v>
+        <v>450.9999</v>
       </c>
       <c r="G122" t="n">
-        <v>239.8666666666667</v>
+        <v>239.9333333333333</v>
       </c>
       <c r="H122" t="n">
         <v>1</v>
@@ -4701,12 +4661,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
+        <v>239</v>
+      </c>
+      <c r="K122" t="n">
         <v>237</v>
       </c>
-      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M122" t="n">
@@ -4718,36 +4680,36 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C123" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D123" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E123" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>238.85</v>
       </c>
       <c r="G123" t="n">
-        <v>239.8166666666667</v>
+        <v>239.8666666666667</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
         <v>237</v>
       </c>
-      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M123" t="n">
@@ -4771,10 +4733,10 @@
         <v>238</v>
       </c>
       <c r="F124" t="n">
-        <v>84.03360000000001</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>239.7833333333333</v>
+        <v>239.8166666666667</v>
       </c>
       <c r="H124" t="n">
         <v>1</v>
@@ -4783,14 +4745,12 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>238</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="K124" t="n">
+        <v>237</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4800,36 +4760,36 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C125" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D125" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E125" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>84.03360000000001</v>
       </c>
       <c r="G125" t="n">
-        <v>239.75</v>
+        <v>239.7833333333333</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>238</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>237</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M125" t="n">
@@ -4853,24 +4813,24 @@
         <v>239</v>
       </c>
       <c r="F126" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>239.7</v>
+        <v>239.75</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>239</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>237</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M126" t="n">
@@ -4882,38 +4842,32 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C127" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D127" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E127" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F127" t="n">
-        <v>986.3867</v>
+        <v>5</v>
       </c>
       <c r="G127" t="n">
-        <v>239.6166666666667</v>
+        <v>239.7</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>239</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4923,22 +4877,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C128" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D128" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E128" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F128" t="n">
-        <v>2571.0717</v>
+        <v>986.3867</v>
       </c>
       <c r="G128" t="n">
-        <v>239.5166666666667</v>
+        <v>239.6166666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4948,11 +4902,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4962,22 +4912,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C129" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D129" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E129" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F129" t="n">
-        <v>3</v>
+        <v>2571.0717</v>
       </c>
       <c r="G129" t="n">
-        <v>239.4333333333333</v>
+        <v>239.5166666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4987,11 +4937,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5001,22 +4947,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C130" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D130" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E130" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F130" t="n">
-        <v>1121.1908</v>
+        <v>3</v>
       </c>
       <c r="G130" t="n">
-        <v>239.3333333333333</v>
+        <v>239.4333333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5026,11 +4972,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5040,36 +4982,36 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>236</v>
+      </c>
+      <c r="C131" t="n">
+        <v>236</v>
+      </c>
+      <c r="D131" t="n">
+        <v>236</v>
+      </c>
+      <c r="E131" t="n">
+        <v>236</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1121.1908</v>
+      </c>
+      <c r="G131" t="n">
+        <v>239.3333333333333</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
         <v>237</v>
       </c>
-      <c r="C131" t="n">
+      <c r="K131" t="n">
         <v>237</v>
       </c>
-      <c r="D131" t="n">
-        <v>237</v>
-      </c>
-      <c r="E131" t="n">
-        <v>237</v>
-      </c>
-      <c r="F131" t="n">
-        <v>3</v>
-      </c>
-      <c r="G131" t="n">
-        <v>239.25</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5079,34 +5021,38 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>237</v>
+      </c>
+      <c r="C132" t="n">
+        <v>237</v>
+      </c>
+      <c r="D132" t="n">
+        <v>237</v>
+      </c>
+      <c r="E132" t="n">
+        <v>237</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3</v>
+      </c>
+      <c r="G132" t="n">
+        <v>239.25</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
         <v>236</v>
       </c>
-      <c r="C132" t="n">
-        <v>236</v>
-      </c>
-      <c r="D132" t="n">
-        <v>236</v>
-      </c>
-      <c r="E132" t="n">
-        <v>236</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G132" t="n">
-        <v>239.15</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>237</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M132" t="n">
@@ -5130,22 +5076,26 @@
         <v>236</v>
       </c>
       <c r="F133" t="n">
-        <v>3210.9917</v>
+        <v>1500</v>
       </c>
       <c r="G133" t="n">
-        <v>239.05</v>
+        <v>239.15</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>237</v>
+      </c>
+      <c r="K133" t="n">
+        <v>237</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M133" t="n">
@@ -5160,33 +5110,33 @@
         <v>236</v>
       </c>
       <c r="C134" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D134" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E134" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F134" t="n">
-        <v>9444.755499999999</v>
+        <v>3210.9917</v>
       </c>
       <c r="G134" t="n">
-        <v>238.9333333333333</v>
+        <v>239.05</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="n">
+        <v>236</v>
+      </c>
+      <c r="K134" t="n">
+        <v>236</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5196,34 +5146,38 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C135" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D135" t="n">
         <v>237</v>
       </c>
       <c r="E135" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>9444.755499999999</v>
       </c>
       <c r="G135" t="n">
-        <v>238.8666666666667</v>
+        <v>238.9333333333333</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>236</v>
+      </c>
+      <c r="K135" t="n">
+        <v>236</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M135" t="n">
@@ -5235,7 +5189,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C136" t="n">
         <v>237</v>
@@ -5244,22 +5198,26 @@
         <v>237</v>
       </c>
       <c r="E136" t="n">
+        <v>237</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>238.8666666666667</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>234</v>
+      </c>
+      <c r="K136" t="n">
         <v>236</v>
       </c>
-      <c r="F136" t="n">
-        <v>1439.1525</v>
-      </c>
-      <c r="G136" t="n">
-        <v>238.8</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5274,31 +5232,35 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C137" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D137" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E137" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>1439.1525</v>
       </c>
       <c r="G137" t="n">
-        <v>238.75</v>
+        <v>238.8</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>237</v>
+      </c>
+      <c r="K137" t="n">
+        <v>236</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5313,31 +5275,35 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>238</v>
+      </c>
+      <c r="C138" t="n">
+        <v>238</v>
+      </c>
+      <c r="D138" t="n">
+        <v>238</v>
+      </c>
+      <c r="E138" t="n">
+        <v>238</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>238.75</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
         <v>237</v>
       </c>
-      <c r="C138" t="n">
-        <v>237</v>
-      </c>
-      <c r="D138" t="n">
-        <v>237</v>
-      </c>
-      <c r="E138" t="n">
-        <v>237</v>
-      </c>
-      <c r="F138" t="n">
-        <v>10</v>
-      </c>
-      <c r="G138" t="n">
-        <v>238.6833333333333</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>236</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5364,19 +5330,23 @@
         <v>237</v>
       </c>
       <c r="F139" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G139" t="n">
-        <v>238.6166666666667</v>
+        <v>238.6833333333333</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>238</v>
+      </c>
+      <c r="K139" t="n">
+        <v>236</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5406,7 +5376,7 @@
         <v>5</v>
       </c>
       <c r="G140" t="n">
-        <v>238.55</v>
+        <v>238.6166666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5415,7 +5385,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>236</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5430,31 +5402,35 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C141" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D141" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E141" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G141" t="n">
-        <v>238.4833333333333</v>
+        <v>238.55</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>237</v>
+      </c>
+      <c r="K141" t="n">
+        <v>236</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5469,31 +5445,35 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C142" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D142" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E142" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F142" t="n">
         <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>238.45</v>
+        <v>238.4833333333333</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>237</v>
+      </c>
+      <c r="K142" t="n">
+        <v>236</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5508,31 +5488,35 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C143" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D143" t="n">
+        <v>239</v>
+      </c>
+      <c r="E143" t="n">
+        <v>239</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>238.45</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
         <v>238</v>
       </c>
-      <c r="E143" t="n">
-        <v>234</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1267.1456</v>
-      </c>
-      <c r="G143" t="n">
-        <v>238.3166666666667</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>236</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5547,7 +5531,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C144" t="n">
         <v>234</v>
@@ -5559,10 +5543,10 @@
         <v>234</v>
       </c>
       <c r="F144" t="n">
-        <v>707.9998000000001</v>
+        <v>1267.1456</v>
       </c>
       <c r="G144" t="n">
-        <v>238.1833333333333</v>
+        <v>238.3166666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5571,7 +5555,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>236</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5586,22 +5572,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C145" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D145" t="n">
         <v>238</v>
       </c>
       <c r="E145" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>707.9998000000001</v>
       </c>
       <c r="G145" t="n">
-        <v>238.15</v>
+        <v>238.1833333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5610,7 +5596,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>236</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5625,22 +5613,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C146" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D146" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E146" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F146" t="n">
-        <v>1150.0972</v>
+        <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>238.0666666666667</v>
+        <v>238.15</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5649,7 +5637,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>236</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5676,10 +5666,10 @@
         <v>234</v>
       </c>
       <c r="F147" t="n">
-        <v>401.9999</v>
+        <v>1150.0972</v>
       </c>
       <c r="G147" t="n">
-        <v>238.0166666666667</v>
+        <v>238.0666666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5688,7 +5678,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>236</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5715,10 +5707,10 @@
         <v>234</v>
       </c>
       <c r="F148" t="n">
-        <v>146.1856</v>
+        <v>401.9999</v>
       </c>
       <c r="G148" t="n">
-        <v>237.9666666666667</v>
+        <v>238.0166666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5727,7 +5719,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>236</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5742,7 +5736,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C149" t="n">
         <v>237</v>
@@ -5751,22 +5745,26 @@
         <v>237</v>
       </c>
       <c r="E149" t="n">
+        <v>234</v>
+      </c>
+      <c r="F149" t="n">
+        <v>146.1856</v>
+      </c>
+      <c r="G149" t="n">
+        <v>237.9666666666667</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
         <v>237</v>
       </c>
-      <c r="F149" t="n">
-        <v>1</v>
-      </c>
-      <c r="G149" t="n">
-        <v>237.9166666666667</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>236</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5784,19 +5782,19 @@
         <v>237</v>
       </c>
       <c r="C150" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D150" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E150" t="n">
         <v>237</v>
       </c>
       <c r="F150" t="n">
-        <v>1061</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>237.85</v>
+        <v>237.9166666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5805,7 +5803,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>236</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5820,31 +5820,35 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C151" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D151" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E151" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F151" t="n">
-        <v>1</v>
+        <v>1061</v>
       </c>
       <c r="G151" t="n">
-        <v>237.8333333333333</v>
+        <v>237.85</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>237</v>
+      </c>
+      <c r="K151" t="n">
+        <v>236</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5871,7 +5875,7 @@
         <v>239</v>
       </c>
       <c r="F152" t="n">
-        <v>1380</v>
+        <v>1</v>
       </c>
       <c r="G152" t="n">
         <v>237.8333333333333</v>
@@ -5883,7 +5887,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>236</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5901,19 +5907,19 @@
         <v>239</v>
       </c>
       <c r="C153" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D153" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E153" t="n">
         <v>239</v>
       </c>
       <c r="F153" t="n">
-        <v>15969.9999</v>
+        <v>1380</v>
       </c>
       <c r="G153" t="n">
-        <v>237.85</v>
+        <v>237.8333333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5922,7 +5928,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>236</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5937,22 +5945,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>239</v>
+      </c>
+      <c r="C154" t="n">
         <v>241</v>
       </c>
-      <c r="C154" t="n">
-        <v>245</v>
-      </c>
       <c r="D154" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E154" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F154" t="n">
-        <v>46891.2079</v>
+        <v>15969.9999</v>
       </c>
       <c r="G154" t="n">
-        <v>237.9333333333333</v>
+        <v>237.85</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5961,7 +5969,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>236</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5976,7 +5986,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C155" t="n">
         <v>245</v>
@@ -5985,13 +5995,13 @@
         <v>245</v>
       </c>
       <c r="E155" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F155" t="n">
-        <v>1292</v>
+        <v>46891.2079</v>
       </c>
       <c r="G155" t="n">
-        <v>238.0166666666667</v>
+        <v>237.9333333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6000,7 +6010,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>236</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6027,10 +6039,10 @@
         <v>245</v>
       </c>
       <c r="F156" t="n">
-        <v>7649.0974</v>
+        <v>1292</v>
       </c>
       <c r="G156" t="n">
-        <v>238.1</v>
+        <v>238.0166666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6039,7 +6051,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>236</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6057,34 +6071,38 @@
         <v>245</v>
       </c>
       <c r="C157" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D157" t="n">
         <v>245</v>
       </c>
       <c r="E157" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F157" t="n">
-        <v>5576.1236</v>
+        <v>7649.0974</v>
       </c>
       <c r="G157" t="n">
-        <v>238.1333333333333</v>
+        <v>238.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>236</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M157" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6094,19 +6112,19 @@
         <v>245</v>
       </c>
       <c r="C158" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D158" t="n">
         <v>245</v>
       </c>
       <c r="E158" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F158" t="n">
-        <v>874</v>
+        <v>5576.1236</v>
       </c>
       <c r="G158" t="n">
-        <v>238.2333333333333</v>
+        <v>238.1333333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6115,8 +6133,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>236</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6129,19 +6153,19 @@
         <v>245</v>
       </c>
       <c r="C159" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D159" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E159" t="n">
         <v>245</v>
       </c>
       <c r="F159" t="n">
-        <v>1882.5978</v>
+        <v>874</v>
       </c>
       <c r="G159" t="n">
-        <v>238.3333333333333</v>
+        <v>238.2333333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6150,8 +6174,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>236</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6161,22 +6191,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C160" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D160" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E160" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F160" t="n">
-        <v>11667.9261</v>
+        <v>1882.5978</v>
       </c>
       <c r="G160" t="n">
-        <v>238.5</v>
+        <v>238.3333333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6185,8 +6215,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>236</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6196,22 +6232,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C161" t="n">
         <v>250</v>
       </c>
       <c r="D161" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E161" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F161" t="n">
-        <v>6852.2746</v>
+        <v>11667.9261</v>
       </c>
       <c r="G161" t="n">
-        <v>238.6833333333333</v>
+        <v>238.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6220,8 +6256,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>236</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6231,22 +6273,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
+        <v>248</v>
+      </c>
+      <c r="C162" t="n">
         <v>250</v>
       </c>
-      <c r="C162" t="n">
-        <v>252</v>
-      </c>
       <c r="D162" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E162" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F162" t="n">
-        <v>6743.6295</v>
+        <v>6852.2746</v>
       </c>
       <c r="G162" t="n">
-        <v>238.9166666666667</v>
+        <v>238.6833333333333</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6255,8 +6297,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>236</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6266,22 +6314,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C163" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D163" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E163" t="n">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F163" t="n">
-        <v>24</v>
+        <v>6743.6295</v>
       </c>
       <c r="G163" t="n">
-        <v>239.1166666666667</v>
+        <v>238.9166666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6290,8 +6338,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>236</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6301,22 +6355,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C164" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D164" t="n">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E164" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F164" t="n">
-        <v>23722.8193</v>
+        <v>24</v>
       </c>
       <c r="G164" t="n">
-        <v>239.3166666666667</v>
+        <v>239.1166666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6325,8 +6379,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>236</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6336,22 +6396,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C165" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D165" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E165" t="n">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F165" t="n">
-        <v>1779.6653</v>
+        <v>23722.8193</v>
       </c>
       <c r="G165" t="n">
-        <v>239.5666666666667</v>
+        <v>239.3166666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6360,8 +6420,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>236</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6383,10 +6449,10 @@
         <v>254</v>
       </c>
       <c r="F166" t="n">
-        <v>2012.2888</v>
+        <v>1779.6653</v>
       </c>
       <c r="G166" t="n">
-        <v>239.8</v>
+        <v>239.5666666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6395,8 +6461,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>236</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6418,20 +6490,26 @@
         <v>254</v>
       </c>
       <c r="F167" t="n">
-        <v>3531</v>
+        <v>2012.2888</v>
       </c>
       <c r="G167" t="n">
-        <v>240.05</v>
+        <v>239.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>236</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6441,32 +6519,38 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C168" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D168" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E168" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F168" t="n">
-        <v>750</v>
+        <v>3531</v>
       </c>
       <c r="G168" t="n">
-        <v>240.2666666666667</v>
+        <v>240.05</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>236</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6479,19 +6563,19 @@
         <v>253</v>
       </c>
       <c r="C169" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D169" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E169" t="n">
         <v>253</v>
       </c>
       <c r="F169" t="n">
-        <v>3050</v>
+        <v>750</v>
       </c>
       <c r="G169" t="n">
-        <v>240.55</v>
+        <v>240.2666666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6500,8 +6584,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>236</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6511,22 +6601,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
+        <v>253</v>
+      </c>
+      <c r="C170" t="n">
         <v>254</v>
       </c>
-      <c r="C170" t="n">
-        <v>255</v>
-      </c>
       <c r="D170" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E170" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F170" t="n">
-        <v>7959.7897</v>
+        <v>3050</v>
       </c>
       <c r="G170" t="n">
-        <v>240.8166666666667</v>
+        <v>240.55</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6535,8 +6625,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>236</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6546,22 +6642,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
+        <v>254</v>
+      </c>
+      <c r="C171" t="n">
         <v>255</v>
       </c>
-      <c r="C171" t="n">
-        <v>257</v>
-      </c>
       <c r="D171" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E171" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F171" t="n">
-        <v>21883.2087</v>
+        <v>7959.7897</v>
       </c>
       <c r="G171" t="n">
-        <v>241.1333333333333</v>
+        <v>240.8166666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6570,8 +6666,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>236</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6581,34 +6683,40 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
+        <v>255</v>
+      </c>
+      <c r="C172" t="n">
         <v>257</v>
       </c>
-      <c r="C172" t="n">
-        <v>258</v>
-      </c>
       <c r="D172" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E172" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F172" t="n">
-        <v>11516.2964</v>
+        <v>21883.2087</v>
       </c>
       <c r="G172" t="n">
-        <v>241.4666666666667</v>
+        <v>241.1333333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>236</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M172" t="n">
-        <v>1</v>
+        <v>1.083983050847458</v>
       </c>
     </row>
     <row r="173">
@@ -6616,22 +6724,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
+        <v>257</v>
+      </c>
+      <c r="C173" t="n">
         <v>258</v>
       </c>
-      <c r="C173" t="n">
-        <v>259</v>
-      </c>
       <c r="D173" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E173" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F173" t="n">
-        <v>29967.9667</v>
+        <v>11516.2964</v>
       </c>
       <c r="G173" t="n">
-        <v>241.8166666666667</v>
+        <v>241.4666666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6651,28 +6759,28 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
+        <v>258</v>
+      </c>
+      <c r="C174" t="n">
         <v>259</v>
       </c>
-      <c r="C174" t="n">
-        <v>261</v>
-      </c>
       <c r="D174" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E174" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F174" t="n">
-        <v>20310.8156549618</v>
+        <v>29967.9667</v>
       </c>
       <c r="G174" t="n">
-        <v>242.2166666666667</v>
+        <v>241.8166666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
@@ -6686,22 +6794,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>259</v>
+      </c>
+      <c r="C175" t="n">
         <v>261</v>
       </c>
-      <c r="C175" t="n">
-        <v>260</v>
-      </c>
       <c r="D175" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E175" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F175" t="n">
-        <v>6958.7423</v>
+        <v>20310.8156549618</v>
       </c>
       <c r="G175" t="n">
-        <v>242.5833333333333</v>
+        <v>242.2166666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6721,7 +6829,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C176" t="n">
         <v>260</v>
@@ -6733,16 +6841,16 @@
         <v>260</v>
       </c>
       <c r="F176" t="n">
-        <v>8125.0574</v>
+        <v>6958.7423</v>
       </c>
       <c r="G176" t="n">
-        <v>242.9666666666667</v>
+        <v>242.5833333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
@@ -6762,16 +6870,16 @@
         <v>260</v>
       </c>
       <c r="D177" t="n">
+        <v>261</v>
+      </c>
+      <c r="E177" t="n">
         <v>260</v>
       </c>
-      <c r="E177" t="n">
-        <v>257</v>
-      </c>
       <c r="F177" t="n">
-        <v>920</v>
+        <v>8125.0574</v>
       </c>
       <c r="G177" t="n">
-        <v>243.35</v>
+        <v>242.9666666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6791,22 +6899,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C178" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D178" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E178" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F178" t="n">
-        <v>4871.3642</v>
+        <v>920</v>
       </c>
       <c r="G178" t="n">
-        <v>243.6833333333333</v>
+        <v>243.35</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6826,22 +6934,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C179" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D179" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E179" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F179" t="n">
-        <v>5471.0769</v>
+        <v>4871.3642</v>
       </c>
       <c r="G179" t="n">
-        <v>244.0666666666667</v>
+        <v>243.6833333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6861,7 +6969,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C180" t="n">
         <v>260</v>
@@ -6870,13 +6978,13 @@
         <v>260</v>
       </c>
       <c r="E180" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F180" t="n">
-        <v>2517.9356</v>
+        <v>5471.0769</v>
       </c>
       <c r="G180" t="n">
-        <v>244.4166666666667</v>
+        <v>244.0666666666667</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6896,22 +7004,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C181" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D181" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E181" t="n">
         <v>258</v>
       </c>
       <c r="F181" t="n">
-        <v>25199.2018</v>
+        <v>2517.9356</v>
       </c>
       <c r="G181" t="n">
-        <v>244.8333333333333</v>
+        <v>244.4166666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6934,19 +7042,19 @@
         <v>259</v>
       </c>
       <c r="C182" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D182" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E182" t="n">
         <v>258</v>
       </c>
       <c r="F182" t="n">
-        <v>6829.9739</v>
+        <v>25199.2018</v>
       </c>
       <c r="G182" t="n">
-        <v>245.1833333333333</v>
+        <v>244.8333333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6966,10 +7074,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
+        <v>259</v>
+      </c>
+      <c r="C183" t="n">
         <v>258</v>
-      </c>
-      <c r="C183" t="n">
-        <v>260</v>
       </c>
       <c r="D183" t="n">
         <v>261</v>
@@ -6978,10 +7086,10 @@
         <v>258</v>
       </c>
       <c r="F183" t="n">
-        <v>12.0195</v>
+        <v>6829.9739</v>
       </c>
       <c r="G183" t="n">
-        <v>245.55</v>
+        <v>245.1833333333333</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7001,22 +7109,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C184" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D184" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E184" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F184" t="n">
-        <v>4447.9494</v>
+        <v>12.0195</v>
       </c>
       <c r="G184" t="n">
-        <v>245.9</v>
+        <v>245.55</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7036,22 +7144,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C185" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D185" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E185" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F185" t="n">
-        <v>172.4137</v>
+        <v>4447.9494</v>
       </c>
       <c r="G185" t="n">
-        <v>246.1666666666667</v>
+        <v>245.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7071,22 +7179,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C186" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D186" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E186" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F186" t="n">
-        <v>1</v>
+        <v>172.4137</v>
       </c>
       <c r="G186" t="n">
-        <v>246.4666666666667</v>
+        <v>246.1666666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7106,22 +7214,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C187" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D187" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E187" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F187" t="n">
-        <v>7308.7408</v>
+        <v>1</v>
       </c>
       <c r="G187" t="n">
-        <v>246.8166666666667</v>
+        <v>246.4666666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7144,19 +7252,19 @@
         <v>258</v>
       </c>
       <c r="C188" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D188" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E188" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F188" t="n">
-        <v>16968.6112</v>
+        <v>7308.7408</v>
       </c>
       <c r="G188" t="n">
-        <v>247.1333333333333</v>
+        <v>246.8166666666667</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7176,22 +7284,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C189" t="n">
         <v>255</v>
       </c>
       <c r="D189" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E189" t="n">
         <v>255</v>
       </c>
       <c r="F189" t="n">
-        <v>1722.4179</v>
+        <v>16968.6112</v>
       </c>
       <c r="G189" t="n">
-        <v>247.4333333333333</v>
+        <v>247.1333333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7223,10 +7331,10 @@
         <v>255</v>
       </c>
       <c r="F190" t="n">
-        <v>325.0899</v>
+        <v>1722.4179</v>
       </c>
       <c r="G190" t="n">
-        <v>247.75</v>
+        <v>247.4333333333333</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7246,22 +7354,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C191" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D191" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E191" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F191" t="n">
-        <v>1</v>
+        <v>325.0899</v>
       </c>
       <c r="G191" t="n">
-        <v>248.0833333333333</v>
+        <v>247.75</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7281,22 +7389,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C192" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D192" t="n">
         <v>257</v>
       </c>
       <c r="E192" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F192" t="n">
-        <v>1302</v>
+        <v>1</v>
       </c>
       <c r="G192" t="n">
-        <v>248.3666666666667</v>
+        <v>248.0833333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7316,22 +7424,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C193" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D193" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E193" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F193" t="n">
-        <v>4343</v>
+        <v>1302</v>
       </c>
       <c r="G193" t="n">
-        <v>248.5833333333333</v>
+        <v>248.3666666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7351,22 +7459,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C194" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D194" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E194" t="n">
         <v>249</v>
       </c>
       <c r="F194" t="n">
-        <v>1000</v>
+        <v>4343</v>
       </c>
       <c r="G194" t="n">
-        <v>248.85</v>
+        <v>248.5833333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7386,22 +7494,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C195" t="n">
         <v>250</v>
       </c>
       <c r="D195" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E195" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F195" t="n">
-        <v>10.9131</v>
+        <v>1000</v>
       </c>
       <c r="G195" t="n">
-        <v>249.0666666666667</v>
+        <v>248.85</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7421,22 +7529,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C196" t="n">
         <v>250</v>
       </c>
       <c r="D196" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E196" t="n">
         <v>250</v>
       </c>
       <c r="F196" t="n">
-        <v>10</v>
+        <v>10.9131</v>
       </c>
       <c r="G196" t="n">
-        <v>249.2833333333333</v>
+        <v>249.0666666666667</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7459,19 +7567,19 @@
         <v>250</v>
       </c>
       <c r="C197" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D197" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E197" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F197" t="n">
-        <v>3293.8053</v>
+        <v>10</v>
       </c>
       <c r="G197" t="n">
-        <v>249.55</v>
+        <v>249.2833333333333</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7491,32 +7599,38 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C198" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D198" t="n">
         <v>254</v>
       </c>
       <c r="E198" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F198" t="n">
-        <v>2456.7305</v>
+        <v>3293.8053</v>
       </c>
       <c r="G198" t="n">
-        <v>249.8166666666667</v>
+        <v>249.55</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>250</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7529,7 +7643,7 @@
         <v>253</v>
       </c>
       <c r="C199" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D199" t="n">
         <v>254</v>
@@ -7538,10 +7652,10 @@
         <v>253</v>
       </c>
       <c r="F199" t="n">
-        <v>1000</v>
+        <v>2456.7305</v>
       </c>
       <c r="G199" t="n">
-        <v>250.1</v>
+        <v>249.8166666666667</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7551,7 +7665,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7561,22 +7679,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
+        <v>253</v>
+      </c>
+      <c r="C200" t="n">
         <v>254</v>
       </c>
-      <c r="C200" t="n">
-        <v>255</v>
-      </c>
       <c r="D200" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E200" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F200" t="n">
-        <v>4019</v>
+        <v>1000</v>
       </c>
       <c r="G200" t="n">
-        <v>250.4</v>
+        <v>250.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7586,7 +7704,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7596,22 +7718,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
+        <v>254</v>
+      </c>
+      <c r="C201" t="n">
         <v>255</v>
       </c>
-      <c r="C201" t="n">
-        <v>256</v>
-      </c>
       <c r="D201" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E201" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F201" t="n">
-        <v>5666.362</v>
+        <v>4019</v>
       </c>
       <c r="G201" t="n">
-        <v>250.7</v>
+        <v>250.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7621,7 +7743,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7631,7 +7757,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C202" t="n">
         <v>256</v>
@@ -7640,13 +7766,13 @@
         <v>256</v>
       </c>
       <c r="E202" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F202" t="n">
-        <v>634.6562</v>
+        <v>5666.362</v>
       </c>
       <c r="G202" t="n">
-        <v>250.9833333333333</v>
+        <v>250.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7656,7 +7782,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7669,19 +7799,19 @@
         <v>256</v>
       </c>
       <c r="C203" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D203" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E203" t="n">
         <v>256</v>
       </c>
       <c r="F203" t="n">
-        <v>10898.4201</v>
+        <v>634.6562</v>
       </c>
       <c r="G203" t="n">
-        <v>251.3666666666667</v>
+        <v>250.9833333333333</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7691,7 +7821,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7704,19 +7838,19 @@
         <v>256</v>
       </c>
       <c r="C204" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D204" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E204" t="n">
         <v>256</v>
       </c>
       <c r="F204" t="n">
-        <v>3568.1463</v>
+        <v>10898.4201</v>
       </c>
       <c r="G204" t="n">
-        <v>251.7333333333333</v>
+        <v>251.3666666666667</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7726,7 +7860,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7739,19 +7877,19 @@
         <v>256</v>
       </c>
       <c r="C205" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D205" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E205" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F205" t="n">
-        <v>852.5738</v>
+        <v>3568.1463</v>
       </c>
       <c r="G205" t="n">
-        <v>252.05</v>
+        <v>251.7333333333333</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7761,7 +7899,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7771,22 +7913,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C206" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D206" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E206" t="n">
         <v>254</v>
       </c>
       <c r="F206" t="n">
-        <v>1558.1578</v>
+        <v>852.5738</v>
       </c>
       <c r="G206" t="n">
-        <v>252.3333333333333</v>
+        <v>252.05</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7796,7 +7938,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7818,10 +7964,10 @@
         <v>254</v>
       </c>
       <c r="F207" t="n">
-        <v>1471.3558</v>
+        <v>1558.1578</v>
       </c>
       <c r="G207" t="n">
-        <v>252.6166666666667</v>
+        <v>252.3333333333333</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7831,7 +7977,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7841,22 +7991,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C208" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D208" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E208" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F208" t="n">
-        <v>42</v>
+        <v>1471.3558</v>
       </c>
       <c r="G208" t="n">
-        <v>252.9333333333333</v>
+        <v>252.6166666666667</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7866,7 +8016,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7876,22 +8030,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C209" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D209" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E209" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F209" t="n">
-        <v>1656</v>
+        <v>42</v>
       </c>
       <c r="G209" t="n">
-        <v>253.2166666666667</v>
+        <v>252.9333333333333</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7901,7 +8055,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7920,13 +8078,13 @@
         <v>254</v>
       </c>
       <c r="E210" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F210" t="n">
-        <v>15183.644</v>
+        <v>1656</v>
       </c>
       <c r="G210" t="n">
-        <v>253.4833333333333</v>
+        <v>253.2166666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7936,7 +8094,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7946,22 +8108,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C211" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D211" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E211" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F211" t="n">
-        <v>1795.8224</v>
+        <v>15183.644</v>
       </c>
       <c r="G211" t="n">
-        <v>253.7166666666667</v>
+        <v>253.4833333333333</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7971,7 +8133,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7981,22 +8147,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C212" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D212" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E212" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F212" t="n">
-        <v>1228</v>
+        <v>1795.8224</v>
       </c>
       <c r="G212" t="n">
-        <v>253.9666666666667</v>
+        <v>253.7166666666667</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8006,7 +8172,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8016,7 +8186,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C213" t="n">
         <v>254</v>
@@ -8025,13 +8195,13 @@
         <v>254</v>
       </c>
       <c r="E213" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F213" t="n">
-        <v>17999.059</v>
+        <v>1228</v>
       </c>
       <c r="G213" t="n">
-        <v>254.1833333333333</v>
+        <v>253.9666666666667</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8041,7 +8211,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8054,19 +8228,19 @@
         <v>254</v>
       </c>
       <c r="C214" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D214" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E214" t="n">
         <v>254</v>
       </c>
       <c r="F214" t="n">
-        <v>1149.6023</v>
+        <v>17999.059</v>
       </c>
       <c r="G214" t="n">
-        <v>254.3833333333333</v>
+        <v>254.1833333333333</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8076,7 +8250,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8086,22 +8264,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C215" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D215" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E215" t="n">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F215" t="n">
-        <v>6561.7184</v>
+        <v>1149.6023</v>
       </c>
       <c r="G215" t="n">
-        <v>254.4666666666667</v>
+        <v>254.3833333333333</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8111,7 +8289,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8124,19 +8306,19 @@
         <v>252</v>
       </c>
       <c r="C216" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D216" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E216" t="n">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F216" t="n">
-        <v>2468.6683</v>
+        <v>6561.7184</v>
       </c>
       <c r="G216" t="n">
-        <v>254.5333333333333</v>
+        <v>254.4666666666667</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8146,7 +8328,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8156,22 +8342,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C217" t="n">
         <v>249</v>
       </c>
       <c r="D217" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E217" t="n">
         <v>249</v>
       </c>
       <c r="F217" t="n">
-        <v>475.7391</v>
+        <v>2468.6683</v>
       </c>
       <c r="G217" t="n">
-        <v>254.6666666666667</v>
+        <v>254.5333333333333</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8181,7 +8367,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8191,22 +8381,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C218" t="n">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D218" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E218" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F218" t="n">
-        <v>250</v>
+        <v>475.7391</v>
       </c>
       <c r="G218" t="n">
-        <v>254.8166666666667</v>
+        <v>254.6666666666667</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8216,7 +8406,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8226,7 +8420,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C219" t="n">
         <v>254</v>
@@ -8235,13 +8429,13 @@
         <v>254</v>
       </c>
       <c r="E219" t="n">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F219" t="n">
-        <v>3246.9692</v>
+        <v>250</v>
       </c>
       <c r="G219" t="n">
-        <v>254.95</v>
+        <v>254.8166666666667</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8251,7 +8445,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8267,16 +8465,16 @@
         <v>254</v>
       </c>
       <c r="D220" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E220" t="n">
         <v>254</v>
       </c>
       <c r="F220" t="n">
-        <v>7664.8839</v>
+        <v>3246.9692</v>
       </c>
       <c r="G220" t="n">
-        <v>255.0166666666667</v>
+        <v>254.95</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8286,7 +8484,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8296,22 +8498,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C221" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D221" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E221" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F221" t="n">
-        <v>42</v>
+        <v>7664.8839</v>
       </c>
       <c r="G221" t="n">
-        <v>255.1333333333333</v>
+        <v>255.0166666666667</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8321,7 +8523,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8334,19 +8540,19 @@
         <v>256</v>
       </c>
       <c r="C222" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D222" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E222" t="n">
         <v>256</v>
       </c>
       <c r="F222" t="n">
-        <v>53277.582</v>
+        <v>42</v>
       </c>
       <c r="G222" t="n">
-        <v>255.2</v>
+        <v>255.1333333333333</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8356,7 +8562,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8366,7 +8576,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C223" t="n">
         <v>256</v>
@@ -8375,13 +8585,13 @@
         <v>256</v>
       </c>
       <c r="E223" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F223" t="n">
-        <v>1723.8537</v>
+        <v>53277.582</v>
       </c>
       <c r="G223" t="n">
-        <v>255.2833333333333</v>
+        <v>255.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8391,7 +8601,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8401,22 +8615,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C224" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D224" t="n">
         <v>256</v>
       </c>
       <c r="E224" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F224" t="n">
-        <v>68323.26609999999</v>
+        <v>1723.8537</v>
       </c>
       <c r="G224" t="n">
-        <v>255.35</v>
+        <v>255.2833333333333</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8426,7 +8640,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8436,22 +8654,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C225" t="n">
+        <v>254</v>
+      </c>
+      <c r="D225" t="n">
+        <v>256</v>
+      </c>
+      <c r="E225" t="n">
         <v>250</v>
       </c>
-      <c r="D225" t="n">
-        <v>251</v>
-      </c>
-      <c r="E225" t="n">
-        <v>248</v>
-      </c>
       <c r="F225" t="n">
-        <v>22639.9048</v>
+        <v>68323.26609999999</v>
       </c>
       <c r="G225" t="n">
-        <v>255.2833333333333</v>
+        <v>255.35</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8461,7 +8679,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8471,19 +8693,19 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
+        <v>251</v>
+      </c>
+      <c r="C226" t="n">
+        <v>250</v>
+      </c>
+      <c r="D226" t="n">
+        <v>251</v>
+      </c>
+      <c r="E226" t="n">
         <v>248</v>
       </c>
-      <c r="C226" t="n">
-        <v>254</v>
-      </c>
-      <c r="D226" t="n">
-        <v>254</v>
-      </c>
-      <c r="E226" t="n">
-        <v>247</v>
-      </c>
       <c r="F226" t="n">
-        <v>5050.8073</v>
+        <v>22639.9048</v>
       </c>
       <c r="G226" t="n">
         <v>255.2833333333333</v>
@@ -8496,7 +8718,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8506,22 +8732,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C227" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D227" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E227" t="n">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F227" t="n">
-        <v>3</v>
+        <v>5050.8073</v>
       </c>
       <c r="G227" t="n">
-        <v>255.3</v>
+        <v>255.2833333333333</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8531,7 +8757,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8541,22 +8771,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C228" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D228" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E228" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F228" t="n">
-        <v>402.9797</v>
+        <v>3</v>
       </c>
       <c r="G228" t="n">
-        <v>255.25</v>
+        <v>255.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8566,7 +8796,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8576,22 +8810,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C229" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D229" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E229" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F229" t="n">
-        <v>6994.9232</v>
+        <v>402.9797</v>
       </c>
       <c r="G229" t="n">
-        <v>255.15</v>
+        <v>255.25</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8601,7 +8835,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8611,22 +8849,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C230" t="n">
         <v>248</v>
       </c>
       <c r="D230" t="n">
+        <v>249</v>
+      </c>
+      <c r="E230" t="n">
         <v>248</v>
       </c>
-      <c r="E230" t="n">
-        <v>246</v>
-      </c>
       <c r="F230" t="n">
-        <v>7822.7117</v>
+        <v>6994.9232</v>
       </c>
       <c r="G230" t="n">
-        <v>255.0333333333333</v>
+        <v>255.15</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8636,7 +8874,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8646,22 +8888,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C231" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D231" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E231" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F231" t="n">
-        <v>10</v>
+        <v>7822.7117</v>
       </c>
       <c r="G231" t="n">
-        <v>254.9166666666667</v>
+        <v>255.0333333333333</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8671,7 +8913,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8681,22 +8927,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C232" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D232" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E232" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F232" t="n">
-        <v>7123.7554</v>
+        <v>10</v>
       </c>
       <c r="G232" t="n">
-        <v>254.7666666666667</v>
+        <v>254.9166666666667</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8706,7 +8952,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8719,19 +8969,19 @@
         <v>248</v>
       </c>
       <c r="C233" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D233" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E233" t="n">
         <v>248</v>
       </c>
       <c r="F233" t="n">
-        <v>466.383</v>
+        <v>7123.7554</v>
       </c>
       <c r="G233" t="n">
-        <v>254.5833333333333</v>
+        <v>254.7666666666667</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8741,7 +8991,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8751,22 +9005,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C234" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D234" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E234" t="n">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F234" t="n">
-        <v>2</v>
+        <v>466.383</v>
       </c>
       <c r="G234" t="n">
-        <v>254.45</v>
+        <v>254.5833333333333</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8776,7 +9030,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8786,22 +9044,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C235" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D235" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E235" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F235" t="n">
-        <v>1593.2157</v>
+        <v>2</v>
       </c>
       <c r="G235" t="n">
-        <v>254.25</v>
+        <v>254.45</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8811,7 +9069,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8824,19 +9086,19 @@
         <v>248</v>
       </c>
       <c r="C236" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D236" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E236" t="n">
         <v>248</v>
       </c>
       <c r="F236" t="n">
-        <v>3043.2109</v>
+        <v>1593.2157</v>
       </c>
       <c r="G236" t="n">
-        <v>254.1333333333333</v>
+        <v>254.25</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8846,7 +9108,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8856,22 +9122,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C237" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D237" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E237" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F237" t="n">
-        <v>237.5335</v>
+        <v>3043.2109</v>
       </c>
       <c r="G237" t="n">
-        <v>253.95</v>
+        <v>254.1333333333333</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8881,7 +9147,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8891,22 +9161,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C238" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D238" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E238" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F238" t="n">
-        <v>237</v>
+        <v>237.5335</v>
       </c>
       <c r="G238" t="n">
-        <v>253.7833333333333</v>
+        <v>253.95</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8916,7 +9186,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8938,10 +9212,10 @@
         <v>248</v>
       </c>
       <c r="F239" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G239" t="n">
-        <v>253.5833333333333</v>
+        <v>253.7833333333333</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8951,7 +9225,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8973,10 +9251,10 @@
         <v>248</v>
       </c>
       <c r="F240" t="n">
-        <v>130.0235</v>
+        <v>238</v>
       </c>
       <c r="G240" t="n">
-        <v>253.3833333333333</v>
+        <v>253.5833333333333</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8986,7 +9264,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8999,19 +9281,19 @@
         <v>248</v>
       </c>
       <c r="C241" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D241" t="n">
         <v>248</v>
       </c>
       <c r="E241" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F241" t="n">
-        <v>3048.2575</v>
+        <v>130.0235</v>
       </c>
       <c r="G241" t="n">
-        <v>253.1166666666667</v>
+        <v>253.3833333333333</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9021,7 +9303,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9031,22 +9317,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C242" t="n">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D242" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E242" t="n">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F242" t="n">
-        <v>1</v>
+        <v>3048.2575</v>
       </c>
       <c r="G242" t="n">
-        <v>252.9666666666667</v>
+        <v>253.1166666666667</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9056,7 +9342,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9066,22 +9356,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C243" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D243" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E243" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F243" t="n">
-        <v>2031.392</v>
+        <v>1</v>
       </c>
       <c r="G243" t="n">
-        <v>252.8</v>
+        <v>252.9666666666667</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9091,7 +9381,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9101,22 +9395,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C244" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D244" t="n">
         <v>250</v>
       </c>
       <c r="E244" t="n">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F244" t="n">
-        <v>3223.8433</v>
+        <v>2031.392</v>
       </c>
       <c r="G244" t="n">
-        <v>252.6333333333333</v>
+        <v>252.8</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9126,7 +9420,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9136,22 +9434,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C245" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D245" t="n">
         <v>250</v>
       </c>
       <c r="E245" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F245" t="n">
-        <v>563</v>
+        <v>3223.8433</v>
       </c>
       <c r="G245" t="n">
-        <v>252.55</v>
+        <v>252.6333333333333</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9161,7 +9459,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9171,22 +9473,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C246" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D246" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E246" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F246" t="n">
-        <v>1647</v>
+        <v>563</v>
       </c>
       <c r="G246" t="n">
-        <v>252.45</v>
+        <v>252.55</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9196,7 +9498,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9206,22 +9512,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C247" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D247" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E247" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F247" t="n">
-        <v>250</v>
+        <v>1647</v>
       </c>
       <c r="G247" t="n">
-        <v>252.3166666666667</v>
+        <v>252.45</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9231,7 +9537,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9244,19 +9554,19 @@
         <v>250</v>
       </c>
       <c r="C248" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D248" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E248" t="n">
         <v>250</v>
       </c>
       <c r="F248" t="n">
-        <v>3744</v>
+        <v>250</v>
       </c>
       <c r="G248" t="n">
-        <v>252.25</v>
+        <v>252.3166666666667</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9266,7 +9576,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9276,22 +9590,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C249" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D249" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E249" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F249" t="n">
-        <v>1</v>
+        <v>3744</v>
       </c>
       <c r="G249" t="n">
-        <v>252.2166666666667</v>
+        <v>252.25</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9301,7 +9615,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9311,22 +9629,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C250" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D250" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E250" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F250" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G250" t="n">
-        <v>252.2</v>
+        <v>252.2166666666667</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9336,7 +9654,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9346,22 +9668,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C251" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D251" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E251" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F251" t="n">
-        <v>2600.0357</v>
+        <v>10</v>
       </c>
       <c r="G251" t="n">
-        <v>252.0666666666667</v>
+        <v>252.2</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9371,7 +9693,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9381,22 +9707,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C252" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D252" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E252" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F252" t="n">
-        <v>379.392</v>
+        <v>2600.0357</v>
       </c>
       <c r="G252" t="n">
-        <v>252.0333333333333</v>
+        <v>252.0666666666667</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9406,7 +9732,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9416,22 +9746,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C253" t="n">
         <v>251</v>
       </c>
       <c r="D253" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E253" t="n">
         <v>251</v>
       </c>
       <c r="F253" t="n">
-        <v>1293.608</v>
+        <v>379.392</v>
       </c>
       <c r="G253" t="n">
-        <v>252.0666666666667</v>
+        <v>252.0333333333333</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9441,7 +9771,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9451,19 +9785,19 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C254" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D254" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E254" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F254" t="n">
-        <v>544.0054</v>
+        <v>1293.608</v>
       </c>
       <c r="G254" t="n">
         <v>252.0666666666667</v>
@@ -9476,7 +9810,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9486,22 +9824,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C255" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D255" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E255" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F255" t="n">
-        <v>1130</v>
+        <v>544.0054</v>
       </c>
       <c r="G255" t="n">
-        <v>252.0833333333333</v>
+        <v>252.0666666666667</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9511,7 +9849,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9521,19 +9863,19 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C256" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D256" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E256" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F256" t="n">
-        <v>58.8146</v>
+        <v>1130</v>
       </c>
       <c r="G256" t="n">
         <v>252.0833333333333</v>
@@ -9546,7 +9888,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9556,22 +9902,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C257" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D257" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E257" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F257" t="n">
-        <v>5.9099</v>
+        <v>58.8146</v>
       </c>
       <c r="G257" t="n">
-        <v>252.0333333333333</v>
+        <v>252.0833333333333</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9581,7 +9927,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9591,19 +9941,19 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C258" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D258" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E258" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F258" t="n">
-        <v>1</v>
+        <v>5.9099</v>
       </c>
       <c r="G258" t="n">
         <v>252.0333333333333</v>
@@ -9616,7 +9966,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9626,22 +9980,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C259" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D259" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E259" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F259" t="n">
-        <v>4685.496</v>
+        <v>1</v>
       </c>
       <c r="G259" t="n">
-        <v>251.95</v>
+        <v>252.0333333333333</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9651,7 +10005,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9661,22 +10019,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C260" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D260" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E260" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F260" t="n">
-        <v>1</v>
+        <v>4685.496</v>
       </c>
       <c r="G260" t="n">
-        <v>251.8833333333333</v>
+        <v>251.95</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9686,7 +10044,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9696,22 +10058,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C261" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D261" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E261" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F261" t="n">
         <v>1</v>
       </c>
       <c r="G261" t="n">
-        <v>251.8166666666667</v>
+        <v>251.8833333333333</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9721,7 +10083,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9731,22 +10097,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C262" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D262" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E262" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F262" t="n">
-        <v>372.8055</v>
+        <v>1</v>
       </c>
       <c r="G262" t="n">
-        <v>251.7166666666667</v>
+        <v>251.8166666666667</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9756,7 +10122,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9766,22 +10136,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C263" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D263" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E263" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F263" t="n">
-        <v>2571.3776</v>
+        <v>372.8055</v>
       </c>
       <c r="G263" t="n">
-        <v>251.5666666666667</v>
+        <v>251.7166666666667</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9791,7 +10161,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9801,22 +10175,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C264" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D264" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E264" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F264" t="n">
-        <v>423.7392</v>
+        <v>2571.3776</v>
       </c>
       <c r="G264" t="n">
-        <v>251.4666666666667</v>
+        <v>251.5666666666667</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9826,7 +10200,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9839,19 +10217,19 @@
         <v>250</v>
       </c>
       <c r="C265" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D265" t="n">
         <v>250</v>
       </c>
       <c r="E265" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F265" t="n">
-        <v>33524.9158</v>
+        <v>423.7392</v>
       </c>
       <c r="G265" t="n">
-        <v>251.2833333333333</v>
+        <v>251.4666666666667</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9861,7 +10239,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9874,19 +10256,19 @@
         <v>250</v>
       </c>
       <c r="C266" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D266" t="n">
         <v>250</v>
       </c>
       <c r="E266" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F266" t="n">
-        <v>1</v>
+        <v>33524.9158</v>
       </c>
       <c r="G266" t="n">
-        <v>251.2166666666667</v>
+        <v>251.2833333333333</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9896,7 +10278,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9906,22 +10292,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C267" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D267" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E267" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F267" t="n">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="G267" t="n">
-        <v>251.1833333333333</v>
+        <v>251.2166666666667</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9931,8 +10317,51 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>251</v>
+      </c>
+      <c r="C268" t="n">
+        <v>252</v>
+      </c>
+      <c r="D268" t="n">
+        <v>252</v>
+      </c>
+      <c r="E268" t="n">
+        <v>251</v>
+      </c>
+      <c r="F268" t="n">
+        <v>250</v>
+      </c>
+      <c r="G268" t="n">
+        <v>251.1833333333333</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M268" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-08 BackTest INS.xlsx
+++ b/BackTest/2019-10-08 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>15790.1879</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>47764.1879</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>239</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -521,7 +527,11 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,7 +564,11 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +601,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +638,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +675,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +712,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +749,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +786,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +823,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +860,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,15 +893,15 @@
         <v>34494.9457</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>236</v>
-      </c>
-      <c r="J14" t="n">
-        <v>236</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,15 +930,15 @@
         <v>34495.9457</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>236</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>235</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -926,12 +972,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>236</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -965,9 +1009,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>236</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1001,14 +1043,12 @@
         <v>40814.88989999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>235</v>
       </c>
-      <c r="J18" t="n">
-        <v>236</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1042,14 +1082,10 @@
         <v>40022.83989999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>237</v>
-      </c>
-      <c r="J19" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1083,14 +1119,10 @@
         <v>40952.47979999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>235</v>
-      </c>
-      <c r="J20" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1124,14 +1156,10 @@
         <v>40952.47979999999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>237</v>
-      </c>
-      <c r="J21" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1165,14 +1193,10 @@
         <v>40952.47979999999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>237</v>
-      </c>
-      <c r="J22" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1206,14 +1230,10 @@
         <v>40952.47979999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>237</v>
-      </c>
-      <c r="J23" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1250,9 +1270,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>236</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1289,9 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>236</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1328,9 +1344,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>236</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1364,14 +1378,10 @@
         <v>40952.47979999999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>237</v>
-      </c>
-      <c r="J27" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1408,9 +1418,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>236</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1444,14 +1452,10 @@
         <v>27021.7418</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>237</v>
-      </c>
-      <c r="J29" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1485,14 +1489,10 @@
         <v>27022.7418</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>235</v>
-      </c>
-      <c r="J30" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1526,14 +1526,10 @@
         <v>28733.4391</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>237</v>
-      </c>
-      <c r="J31" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1567,14 +1563,10 @@
         <v>28731.4391</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>239</v>
-      </c>
-      <c r="J32" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1608,14 +1600,10 @@
         <v>28732.4391</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>237</v>
-      </c>
-      <c r="J33" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1649,14 +1637,10 @@
         <v>28348.2591</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>239</v>
-      </c>
-      <c r="J34" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1690,14 +1674,10 @@
         <v>28348.2591</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>238</v>
-      </c>
-      <c r="J35" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1731,14 +1711,10 @@
         <v>28349.2591</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>238</v>
-      </c>
-      <c r="J36" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1772,14 +1748,12 @@
         <v>28349.2591</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>239</v>
       </c>
-      <c r="J37" t="n">
-        <v>236</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1816,9 +1790,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>236</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1852,12 +1824,12 @@
         <v>28217.2591</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>236</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>238</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1894,9 +1866,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>236</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1933,9 +1903,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>236</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1969,14 +1937,10 @@
         <v>28065.2591</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>239</v>
-      </c>
-      <c r="J42" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2010,14 +1974,10 @@
         <v>28065.2591</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>239</v>
-      </c>
-      <c r="J43" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2051,14 +2011,10 @@
         <v>28065.2591</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>239</v>
-      </c>
-      <c r="J44" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2095,9 +2051,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>236</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2131,14 +2085,10 @@
         <v>28065.2591</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>239</v>
-      </c>
-      <c r="J46" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2175,9 +2125,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>236</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2214,9 +2162,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>236</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2253,9 +2199,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>236</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2292,9 +2236,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>236</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2331,9 +2273,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>236</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2370,9 +2310,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>236</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2409,9 +2347,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>236</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2448,9 +2384,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>236</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2487,9 +2421,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>236</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2526,9 +2458,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>236</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2565,9 +2495,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>236</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2604,9 +2532,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>236</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2640,14 +2566,10 @@
         <v>36056.22849999999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>243</v>
-      </c>
-      <c r="J59" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2684,9 +2606,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>236</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2723,9 +2643,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>236</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2762,9 +2680,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>236</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2798,14 +2714,10 @@
         <v>35530.99569999999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>245</v>
-      </c>
-      <c r="J63" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2839,14 +2751,10 @@
         <v>35530.99569999999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>244</v>
-      </c>
-      <c r="J64" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2880,14 +2788,10 @@
         <v>20340.99729999999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>244</v>
-      </c>
-      <c r="J65" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2921,14 +2825,10 @@
         <v>20344.28299999999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>242</v>
-      </c>
-      <c r="J66" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2962,14 +2862,10 @@
         <v>21936.59869999999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>245</v>
-      </c>
-      <c r="J67" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3003,14 +2899,10 @@
         <v>20721.54459999999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>246</v>
-      </c>
-      <c r="J68" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3044,14 +2936,10 @@
         <v>20898.54459999999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>244</v>
-      </c>
-      <c r="J69" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3085,14 +2973,10 @@
         <v>20897.54459999999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>245</v>
-      </c>
-      <c r="J70" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3126,14 +3010,10 @@
         <v>20901.33359999999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>242</v>
-      </c>
-      <c r="J71" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3167,14 +3047,10 @@
         <v>20902.33359999999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>244</v>
-      </c>
-      <c r="J72" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3208,14 +3084,10 @@
         <v>20902.33359999999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>245</v>
-      </c>
-      <c r="J73" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3249,14 +3121,10 @@
         <v>20901.33359999999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>245</v>
-      </c>
-      <c r="J74" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3290,14 +3158,10 @@
         <v>14768.96919999999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>243</v>
-      </c>
-      <c r="J75" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3331,14 +3195,10 @@
         <v>14768.96919999999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>242</v>
-      </c>
-      <c r="J76" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3372,14 +3232,10 @@
         <v>14778.96919999999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>242</v>
-      </c>
-      <c r="J77" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3413,14 +3269,10 @@
         <v>14778.96919999999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>243</v>
-      </c>
-      <c r="J78" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3454,14 +3306,10 @@
         <v>12862.73279999999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>243</v>
-      </c>
-      <c r="J79" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3495,14 +3343,10 @@
         <v>12862.73279999999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>242</v>
-      </c>
-      <c r="J80" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3536,14 +3380,10 @@
         <v>12864.73279999999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>242</v>
-      </c>
-      <c r="J81" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3580,9 +3420,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>236</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3619,9 +3457,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>236</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3655,14 +3491,10 @@
         <v>8687.08699999999</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>240</v>
-      </c>
-      <c r="J84" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3696,14 +3528,10 @@
         <v>8687.08699999999</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>242</v>
-      </c>
-      <c r="J85" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3737,14 +3565,10 @@
         <v>8687.08699999999</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>242</v>
-      </c>
-      <c r="J86" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3778,14 +3602,10 @@
         <v>8687.08699999999</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>242</v>
-      </c>
-      <c r="J87" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3819,14 +3639,10 @@
         <v>6910.08699999999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>242</v>
-      </c>
-      <c r="J88" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3860,14 +3676,10 @@
         <v>6911.08699999999</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>241</v>
-      </c>
-      <c r="J89" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3901,14 +3713,10 @@
         <v>6911.08699999999</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>242</v>
-      </c>
-      <c r="J90" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3942,14 +3750,10 @@
         <v>6911.08699999999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>242</v>
-      </c>
-      <c r="J91" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3986,9 +3790,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>236</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4025,9 +3827,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>236</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4064,9 +3864,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>236</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4103,9 +3901,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>236</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4142,9 +3938,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>236</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4181,9 +3975,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>236</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4220,9 +4012,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>236</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4256,14 +4046,10 @@
         <v>6598.63769999999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>243</v>
-      </c>
-      <c r="J99" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4300,9 +4086,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>236</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4339,9 +4123,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>236</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4378,9 +4160,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>236</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4417,9 +4197,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>236</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4453,14 +4231,10 @@
         <v>1672.90329999999</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>242</v>
-      </c>
-      <c r="J104" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4494,14 +4268,10 @@
         <v>1673.90329999999</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>241</v>
-      </c>
-      <c r="J105" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4535,14 +4305,10 @@
         <v>1673.90329999999</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>242</v>
-      </c>
-      <c r="J106" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4576,14 +4342,10 @@
         <v>1673.90329999999</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>242</v>
-      </c>
-      <c r="J107" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4617,14 +4379,10 @@
         <v>1674.90329999999</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>242</v>
-      </c>
-      <c r="J108" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4661,9 +4419,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>236</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4700,9 +4456,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>236</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4739,9 +4493,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>236</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4778,9 +4530,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>236</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4817,9 +4567,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>236</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4853,14 +4601,10 @@
         <v>633.3736999999903</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>242</v>
-      </c>
-      <c r="J114" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4897,9 +4641,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>236</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4936,9 +4678,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>236</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4975,9 +4715,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>236</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5014,9 +4752,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>236</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5053,9 +4789,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>236</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5092,9 +4826,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>236</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5131,9 +4863,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>236</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5170,9 +4900,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>236</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5209,9 +4937,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>236</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5248,9 +4974,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>236</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5284,14 +5008,10 @@
         <v>10172.22399999999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>241</v>
-      </c>
-      <c r="J125" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5328,9 +5048,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>236</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5364,14 +5082,10 @@
         <v>10172.22399999999</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>242</v>
-      </c>
-      <c r="J127" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5408,9 +5122,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>236</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5447,9 +5159,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>236</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5486,9 +5196,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>236</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5522,14 +5230,10 @@
         <v>10172.22399999999</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>242</v>
-      </c>
-      <c r="J131" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5563,14 +5267,10 @@
         <v>10172.22399999999</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>242</v>
-      </c>
-      <c r="J132" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5604,14 +5304,10 @@
         <v>9853.56109999999</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>242</v>
-      </c>
-      <c r="J133" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5645,14 +5341,10 @@
         <v>9853.56109999999</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>241</v>
-      </c>
-      <c r="J134" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5686,14 +5378,10 @@
         <v>9853.56109999999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>241</v>
-      </c>
-      <c r="J135" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5727,14 +5415,10 @@
         <v>9853.56109999999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>241</v>
-      </c>
-      <c r="J136" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5768,14 +5452,10 @@
         <v>9853.56109999999</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>241</v>
-      </c>
-      <c r="J137" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5809,14 +5489,10 @@
         <v>9853.56109999999</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>241</v>
-      </c>
-      <c r="J138" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5850,14 +5526,10 @@
         <v>9853.56109999999</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>241</v>
-      </c>
-      <c r="J139" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5891,14 +5563,10 @@
         <v>9854.56109999999</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>241</v>
-      </c>
-      <c r="J140" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5932,14 +5600,10 @@
         <v>9654.56109999999</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>242</v>
-      </c>
-      <c r="J141" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5973,14 +5637,10 @@
         <v>15647.70559999999</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>241</v>
-      </c>
-      <c r="J142" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6014,14 +5674,10 @@
         <v>15647.70559999999</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>242</v>
-      </c>
-      <c r="J143" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6055,14 +5711,10 @@
         <v>15297.70559999999</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>242</v>
-      </c>
-      <c r="J144" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6096,14 +5748,10 @@
         <v>15298.70559999999</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>240</v>
-      </c>
-      <c r="J145" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6137,14 +5785,10 @@
         <v>15073.75409999999</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>242</v>
-      </c>
-      <c r="J146" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6178,14 +5822,10 @@
         <v>15073.75409999999</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>240</v>
-      </c>
-      <c r="J147" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6219,14 +5859,10 @@
         <v>15073.75409999999</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>240</v>
-      </c>
-      <c r="J148" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6260,14 +5896,10 @@
         <v>15074.75409999999</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>240</v>
-      </c>
-      <c r="J149" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6301,14 +5933,10 @@
         <v>8854.36889999999</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>242</v>
-      </c>
-      <c r="J150" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6342,14 +5970,10 @@
         <v>7901.72799999999</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>240</v>
-      </c>
-      <c r="J151" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6383,14 +6007,10 @@
         <v>7902.72799999999</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>239</v>
-      </c>
-      <c r="J152" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6424,14 +6044,10 @@
         <v>7902.72799999999</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>240</v>
-      </c>
-      <c r="J153" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6465,14 +6081,10 @@
         <v>7902.72799999999</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>240</v>
-      </c>
-      <c r="J154" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6506,14 +6118,10 @@
         <v>7902.72799999999</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>240</v>
-      </c>
-      <c r="J155" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6547,14 +6155,10 @@
         <v>7530.72799999999</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>240</v>
-      </c>
-      <c r="J156" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6588,14 +6192,10 @@
         <v>7530.72799999999</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>239</v>
-      </c>
-      <c r="J157" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6629,14 +6229,10 @@
         <v>7561.72799999999</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>239</v>
-      </c>
-      <c r="J158" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6670,14 +6266,10 @@
         <v>7561.72799999999</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>240</v>
-      </c>
-      <c r="J159" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6711,14 +6303,10 @@
         <v>3575.28239999999</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>240</v>
-      </c>
-      <c r="J160" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6752,14 +6340,10 @@
         <v>952.8547999999901</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>239</v>
-      </c>
-      <c r="J161" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6793,14 +6377,10 @@
         <v>954.8547999999901</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>238</v>
-      </c>
-      <c r="J162" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6834,14 +6414,10 @@
         <v>-17884.65820000001</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>239</v>
-      </c>
-      <c r="J163" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6875,14 +6451,10 @@
         <v>-17881.65820000001</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="n">
-        <v>238</v>
-      </c>
-      <c r="J164" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6916,14 +6488,10 @@
         <v>-13492.65820000001</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="n">
-        <v>239</v>
-      </c>
-      <c r="J165" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6957,14 +6525,10 @@
         <v>-13493.65820000001</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>240</v>
-      </c>
-      <c r="J166" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6998,14 +6562,10 @@
         <v>-13492.65820000001</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>239</v>
-      </c>
-      <c r="J167" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7039,14 +6599,10 @@
         <v>-14058.08270000001</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>240</v>
-      </c>
-      <c r="J168" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7083,9 +6639,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>236</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7122,9 +6676,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>236</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7161,9 +6713,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>236</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7197,14 +6747,10 @@
         <v>-14377.01260000001</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="n">
-        <v>238</v>
-      </c>
-      <c r="J172" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7238,14 +6784,10 @@
         <v>-31749.21050000001</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>238</v>
-      </c>
-      <c r="J173" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7279,14 +6821,10 @@
         <v>-31748.21050000001</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>237</v>
-      </c>
-      <c r="J174" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7320,14 +6858,10 @@
         <v>-31920.21050000001</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>238</v>
-      </c>
-      <c r="J175" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7361,14 +6895,10 @@
         <v>-31920.21050000001</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>237</v>
-      </c>
-      <c r="J176" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7402,14 +6932,12 @@
         <v>-31919.21050000001</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>237</v>
       </c>
-      <c r="J177" t="n">
-        <v>236</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7443,14 +6971,10 @@
         <v>-32778.73610000001</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>238</v>
-      </c>
-      <c r="J178" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7484,14 +7008,10 @@
         <v>-32777.73610000001</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>237</v>
-      </c>
-      <c r="J179" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7525,14 +7045,10 @@
         <v>-33228.73600000001</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>239</v>
-      </c>
-      <c r="J180" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7566,14 +7082,10 @@
         <v>-33228.73600000001</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>237</v>
-      </c>
-      <c r="J181" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7607,14 +7119,10 @@
         <v>-33227.73600000001</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>237</v>
-      </c>
-      <c r="J182" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7648,14 +7156,10 @@
         <v>-33227.73600000001</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>238</v>
-      </c>
-      <c r="J183" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7689,14 +7193,10 @@
         <v>-33226.73600000001</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>238</v>
-      </c>
-      <c r="J184" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7730,14 +7230,10 @@
         <v>-33226.73600000001</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>239</v>
-      </c>
-      <c r="J185" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7771,14 +7267,10 @@
         <v>-34213.12270000001</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>239</v>
-      </c>
-      <c r="J186" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7812,14 +7304,10 @@
         <v>-36784.19440000001</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>237</v>
-      </c>
-      <c r="J187" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7853,14 +7341,10 @@
         <v>-36781.19440000001</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>236</v>
-      </c>
-      <c r="J188" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7894,14 +7378,10 @@
         <v>-37902.38520000001</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>237</v>
-      </c>
-      <c r="J189" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7935,14 +7415,12 @@
         <v>-37899.38520000001</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>236</v>
       </c>
-      <c r="J190" t="n">
-        <v>236</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7976,14 +7454,12 @@
         <v>-39399.38520000001</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>237</v>
       </c>
-      <c r="J191" t="n">
-        <v>236</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8017,14 +7493,12 @@
         <v>-39399.38520000001</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>236</v>
       </c>
-      <c r="J192" t="n">
-        <v>236</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8058,14 +7532,12 @@
         <v>-48844.14070000001</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>236</v>
       </c>
-      <c r="J193" t="n">
-        <v>236</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8099,14 +7571,12 @@
         <v>-48843.14070000001</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>234</v>
       </c>
-      <c r="J194" t="n">
-        <v>236</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8140,14 +7610,12 @@
         <v>-48843.14070000001</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>237</v>
       </c>
-      <c r="J195" t="n">
-        <v>236</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8181,14 +7649,12 @@
         <v>-48842.14070000001</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>237</v>
       </c>
-      <c r="J196" t="n">
-        <v>236</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8222,14 +7688,12 @@
         <v>-48852.14070000001</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>238</v>
       </c>
-      <c r="J197" t="n">
-        <v>236</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8263,14 +7727,12 @@
         <v>-48852.14070000001</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>237</v>
       </c>
-      <c r="J198" t="n">
-        <v>236</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8304,14 +7766,10 @@
         <v>-48852.14070000001</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>237</v>
-      </c>
-      <c r="J199" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8345,14 +7803,12 @@
         <v>-48851.14070000001</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>237</v>
       </c>
-      <c r="J200" t="n">
-        <v>236</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8386,14 +7842,12 @@
         <v>-48850.14070000001</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>238</v>
       </c>
-      <c r="J201" t="n">
-        <v>236</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8427,14 +7881,10 @@
         <v>-50117.28630000001</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>239</v>
-      </c>
-      <c r="J202" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8468,14 +7918,12 @@
         <v>-50117.28630000001</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>234</v>
       </c>
-      <c r="J203" t="n">
-        <v>236</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8509,14 +7957,12 @@
         <v>-50116.28630000001</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>234</v>
       </c>
-      <c r="J204" t="n">
-        <v>236</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8550,14 +7996,12 @@
         <v>-51266.38350000001</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>238</v>
       </c>
-      <c r="J205" t="n">
-        <v>236</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8591,14 +8035,12 @@
         <v>-51266.38350000001</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>237</v>
       </c>
-      <c r="J206" t="n">
-        <v>236</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8632,14 +8074,12 @@
         <v>-51266.38350000001</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>237</v>
       </c>
-      <c r="J207" t="n">
-        <v>236</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8673,14 +8113,12 @@
         <v>-51266.38350000001</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>237</v>
       </c>
-      <c r="J208" t="n">
-        <v>236</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8714,14 +8152,12 @@
         <v>-50205.38350000001</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>237</v>
       </c>
-      <c r="J209" t="n">
-        <v>236</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8755,14 +8191,12 @@
         <v>-50204.38350000001</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>238</v>
       </c>
-      <c r="J210" t="n">
-        <v>236</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8796,14 +8230,12 @@
         <v>-50204.38350000001</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>239</v>
       </c>
-      <c r="J211" t="n">
-        <v>236</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8837,14 +8269,12 @@
         <v>-34234.38360000001</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>239</v>
       </c>
-      <c r="J212" t="n">
-        <v>236</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8878,14 +8308,12 @@
         <v>12656.82429999999</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>241</v>
       </c>
-      <c r="J213" t="n">
-        <v>236</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8922,9 +8350,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>236</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8961,9 +8387,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>236</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9000,9 +8424,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>236</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9039,9 +8461,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>236</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9078,9 +8498,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>236</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9117,9 +8535,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>236</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9156,9 +8572,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>236</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9195,9 +8609,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>236</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9234,9 +8646,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>236</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9273,9 +8683,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>236</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9312,9 +8720,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>236</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9351,9 +8757,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>236</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9390,9 +8794,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>236</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9429,9 +8831,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>236</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9468,9 +8868,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>236</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9507,9 +8905,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>236</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9546,9 +8942,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>236</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9585,9 +8979,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>236</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9624,9 +9016,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>236</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9663,9 +9053,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>236</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9702,9 +9090,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>236</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9741,9 +9127,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>236</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9780,9 +9164,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>236</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9819,9 +9201,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>236</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9858,9 +9238,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>236</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9897,9 +9275,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>236</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9936,9 +9312,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>236</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9972,12 +9346,10 @@
         <v>112229.9755549618</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>236</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10011,12 +9383,10 @@
         <v>112241.9950549618</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>236</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10053,9 +9423,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>236</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10089,20 +9457,16 @@
         <v>107621.6319549618</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>236</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
@@ -10131,14 +9495,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>236</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10167,17 +9525,11 @@
         <v>114931.3727549618</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>236</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10206,17 +9558,11 @@
         <v>97962.76155496179</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>236</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10245,17 +9591,11 @@
         <v>97962.76155496179</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>236</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10284,17 +9624,11 @@
         <v>97962.76155496179</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>236</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10323,17 +9657,11 @@
         <v>97963.76155496179</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>236</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10362,17 +9690,11 @@
         <v>96661.76155496179</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>236</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10401,17 +9723,11 @@
         <v>92318.76155496179</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>236</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10440,17 +9756,11 @@
         <v>93318.76155496179</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>236</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10479,17 +9789,11 @@
         <v>93318.76155496179</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>236</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10518,17 +9822,11 @@
         <v>93318.76155496179</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>236</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10557,17 +9855,11 @@
         <v>96612.5668549618</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>236</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10596,17 +9888,11 @@
         <v>94155.83635496179</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>236</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10635,17 +9921,11 @@
         <v>95155.83635496179</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>236</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10674,17 +9954,11 @@
         <v>99174.83635496179</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>236</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10713,17 +9987,11 @@
         <v>104841.1983549618</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>236</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10752,17 +10020,11 @@
         <v>104841.1983549618</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>236</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10791,17 +10053,11 @@
         <v>115739.6184549618</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>236</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10830,17 +10086,11 @@
         <v>112171.4721549618</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>236</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10869,17 +10119,11 @@
         <v>113024.0459549618</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>236</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10908,17 +10152,11 @@
         <v>111465.8881549618</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>236</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10950,14 +10188,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>236</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10989,14 +10221,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>236</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -11028,14 +10254,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>236</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -11067,14 +10287,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>236</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -11106,14 +10320,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>236</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11145,14 +10353,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>236</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11184,14 +10386,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>236</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11223,14 +10419,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>236</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11262,14 +10452,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>236</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11301,14 +10485,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>236</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11340,14 +10518,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>236</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11379,14 +10551,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>236</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11418,14 +10584,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>236</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11454,23 +10614,15 @@
         <v>101653.2813549618</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>236</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
-        <v>1.071271186440678</v>
-      </c>
-      <c r="M279" t="n">
-        <v>1.029787234042553</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11495,7 +10647,7 @@
         <v>101695.2813549618</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11528,7 +10680,7 @@
         <v>48417.69935496178</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11561,7 +10713,7 @@
         <v>48417.69935496178</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11594,7 +10746,7 @@
         <v>-19905.56674503821</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11627,7 +10779,7 @@
         <v>-42545.47154503821</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11660,7 +10812,7 @@
         <v>-37494.66424503821</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11693,7 +10845,7 @@
         <v>-37491.66424503821</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11726,7 +10878,7 @@
         <v>-37894.64394503821</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11792,7 +10944,7 @@
         <v>-44889.56714503821</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11825,7 +10977,7 @@
         <v>-44879.56714503821</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11858,7 +11010,7 @@
         <v>-52003.32254503821</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11891,7 +11043,7 @@
         <v>-52469.70554503821</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11957,7 +11109,7 @@
         <v>-54060.92124503821</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -13354,6 +12506,6 @@
       <c r="M336" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-08 BackTest INS.xlsx
+++ b/BackTest/2019-10-08 BackTest INS.xlsx
@@ -6688,14 +6688,10 @@
         <v>-39399.38520000001</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>237</v>
-      </c>
-      <c r="J191" t="n">
-        <v>237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
@@ -6725,421 +6721,357 @@
         <v>-39399.38520000001</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
         <v>236</v>
       </c>
-      <c r="J192" t="n">
-        <v>237</v>
-      </c>
-      <c r="K192" t="inlineStr">
+      <c r="C193" t="n">
+        <v>234</v>
+      </c>
+      <c r="D193" t="n">
+        <v>237</v>
+      </c>
+      <c r="E193" t="n">
+        <v>234</v>
+      </c>
+      <c r="F193" t="n">
+        <v>9444.755499999999</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-48844.14070000001</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>237</v>
+      </c>
+      <c r="C194" t="n">
+        <v>237</v>
+      </c>
+      <c r="D194" t="n">
+        <v>237</v>
+      </c>
+      <c r="E194" t="n">
+        <v>237</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-48843.14070000001</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>236</v>
+      </c>
+      <c r="C195" t="n">
+        <v>237</v>
+      </c>
+      <c r="D195" t="n">
+        <v>237</v>
+      </c>
+      <c r="E195" t="n">
+        <v>236</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1439.1525</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-48843.14070000001</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>238</v>
+      </c>
+      <c r="C196" t="n">
+        <v>238</v>
+      </c>
+      <c r="D196" t="n">
+        <v>238</v>
+      </c>
+      <c r="E196" t="n">
+        <v>238</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-48842.14070000001</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>237</v>
+      </c>
+      <c r="C197" t="n">
+        <v>237</v>
+      </c>
+      <c r="D197" t="n">
+        <v>237</v>
+      </c>
+      <c r="E197" t="n">
+        <v>237</v>
+      </c>
+      <c r="F197" t="n">
+        <v>10</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-48852.14070000001</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>237</v>
+      </c>
+      <c r="C198" t="n">
+        <v>237</v>
+      </c>
+      <c r="D198" t="n">
+        <v>237</v>
+      </c>
+      <c r="E198" t="n">
+        <v>237</v>
+      </c>
+      <c r="F198" t="n">
+        <v>5</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-48852.14070000001</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>237</v>
+      </c>
+      <c r="C199" t="n">
+        <v>237</v>
+      </c>
+      <c r="D199" t="n">
+        <v>237</v>
+      </c>
+      <c r="E199" t="n">
+        <v>237</v>
+      </c>
+      <c r="F199" t="n">
+        <v>5</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-48852.14070000001</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>238</v>
+      </c>
+      <c r="C200" t="n">
+        <v>238</v>
+      </c>
+      <c r="D200" t="n">
+        <v>238</v>
+      </c>
+      <c r="E200" t="n">
+        <v>238</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-48851.14070000001</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>237</v>
+      </c>
+      <c r="J200" t="n">
+        <v>237</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>239</v>
+      </c>
+      <c r="C201" t="n">
+        <v>239</v>
+      </c>
+      <c r="D201" t="n">
+        <v>239</v>
+      </c>
+      <c r="E201" t="n">
+        <v>239</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-48850.14070000001</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>237</v>
+      </c>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>236</v>
-      </c>
-      <c r="C193" t="n">
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>235</v>
+      </c>
+      <c r="C202" t="n">
         <v>234</v>
       </c>
-      <c r="D193" t="n">
-        <v>237</v>
-      </c>
-      <c r="E193" t="n">
+      <c r="D202" t="n">
+        <v>238</v>
+      </c>
+      <c r="E202" t="n">
         <v>234</v>
       </c>
-      <c r="F193" t="n">
-        <v>9444.755499999999</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-48844.14070000001</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>236</v>
-      </c>
-      <c r="J193" t="n">
-        <v>237</v>
-      </c>
-      <c r="K193" t="inlineStr">
+      <c r="F202" t="n">
+        <v>1267.1456</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-50117.28630000001</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>237</v>
+      </c>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>237</v>
-      </c>
-      <c r="C194" t="n">
-        <v>237</v>
-      </c>
-      <c r="D194" t="n">
-        <v>237</v>
-      </c>
-      <c r="E194" t="n">
-        <v>237</v>
-      </c>
-      <c r="F194" t="n">
-        <v>1</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-48843.14070000001</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>234</v>
-      </c>
-      <c r="J194" t="n">
-        <v>237</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>236</v>
-      </c>
-      <c r="C195" t="n">
-        <v>237</v>
-      </c>
-      <c r="D195" t="n">
-        <v>237</v>
-      </c>
-      <c r="E195" t="n">
-        <v>236</v>
-      </c>
-      <c r="F195" t="n">
-        <v>1439.1525</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-48843.14070000001</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>237</v>
-      </c>
-      <c r="J195" t="n">
-        <v>237</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>238</v>
-      </c>
-      <c r="C196" t="n">
-        <v>238</v>
-      </c>
-      <c r="D196" t="n">
-        <v>238</v>
-      </c>
-      <c r="E196" t="n">
-        <v>238</v>
-      </c>
-      <c r="F196" t="n">
-        <v>1</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-48842.14070000001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>237</v>
-      </c>
-      <c r="J196" t="n">
-        <v>237</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>237</v>
-      </c>
-      <c r="C197" t="n">
-        <v>237</v>
-      </c>
-      <c r="D197" t="n">
-        <v>237</v>
-      </c>
-      <c r="E197" t="n">
-        <v>237</v>
-      </c>
-      <c r="F197" t="n">
-        <v>10</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-48852.14070000001</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>237</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>237</v>
-      </c>
-      <c r="C198" t="n">
-        <v>237</v>
-      </c>
-      <c r="D198" t="n">
-        <v>237</v>
-      </c>
-      <c r="E198" t="n">
-        <v>237</v>
-      </c>
-      <c r="F198" t="n">
-        <v>5</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-48852.14070000001</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>237</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>237</v>
-      </c>
-      <c r="C199" t="n">
-        <v>237</v>
-      </c>
-      <c r="D199" t="n">
-        <v>237</v>
-      </c>
-      <c r="E199" t="n">
-        <v>237</v>
-      </c>
-      <c r="F199" t="n">
-        <v>5</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-48852.14070000001</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>237</v>
-      </c>
-      <c r="J199" t="n">
-        <v>237</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>238</v>
-      </c>
-      <c r="C200" t="n">
-        <v>238</v>
-      </c>
-      <c r="D200" t="n">
-        <v>238</v>
-      </c>
-      <c r="E200" t="n">
-        <v>238</v>
-      </c>
-      <c r="F200" t="n">
-        <v>1</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-48851.14070000001</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>237</v>
-      </c>
-      <c r="J200" t="n">
-        <v>237</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>239</v>
-      </c>
-      <c r="C201" t="n">
-        <v>239</v>
-      </c>
-      <c r="D201" t="n">
-        <v>239</v>
-      </c>
-      <c r="E201" t="n">
-        <v>239</v>
-      </c>
-      <c r="F201" t="n">
-        <v>1</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-48850.14070000001</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>237</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>235</v>
-      </c>
-      <c r="C202" t="n">
-        <v>234</v>
-      </c>
-      <c r="D202" t="n">
-        <v>238</v>
-      </c>
-      <c r="E202" t="n">
-        <v>234</v>
-      </c>
-      <c r="F202" t="n">
-        <v>1267.1456</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-50117.28630000001</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>237</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7168,11 +7100,9 @@
         <v>-50117.28630000001</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
         <v>237</v>
       </c>
@@ -7537,9 +7467,11 @@
         <v>-34234.38360000001</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>239</v>
+      </c>
       <c r="J212" t="n">
         <v>237</v>
       </c>
@@ -7576,9 +7508,11 @@
         <v>12656.82429999999</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>241</v>
+      </c>
       <c r="J213" t="n">
         <v>237</v>
       </c>
@@ -7888,485 +7822,569 @@
         <v>28248.85409999999</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
         <v>237</v>
       </c>
       <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>251</v>
+      </c>
+      <c r="C222" t="n">
+        <v>251</v>
+      </c>
+      <c r="D222" t="n">
+        <v>251</v>
+      </c>
+      <c r="E222" t="n">
+        <v>251</v>
+      </c>
+      <c r="F222" t="n">
+        <v>24</v>
+      </c>
+      <c r="G222" t="n">
+        <v>28224.85409999999</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>237</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>252</v>
+      </c>
+      <c r="C223" t="n">
+        <v>250</v>
+      </c>
+      <c r="D223" t="n">
+        <v>255</v>
+      </c>
+      <c r="E223" t="n">
+        <v>249</v>
+      </c>
+      <c r="F223" t="n">
+        <v>23722.8193</v>
+      </c>
+      <c r="G223" t="n">
+        <v>4502.034799999994</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>237</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>254</v>
+      </c>
+      <c r="C224" t="n">
+        <v>254</v>
+      </c>
+      <c r="D224" t="n">
+        <v>254</v>
+      </c>
+      <c r="E224" t="n">
+        <v>254</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1779.6653</v>
+      </c>
+      <c r="G224" t="n">
+        <v>6281.700099999994</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>237</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>254</v>
+      </c>
+      <c r="C225" t="n">
+        <v>254</v>
+      </c>
+      <c r="D225" t="n">
+        <v>254</v>
+      </c>
+      <c r="E225" t="n">
+        <v>254</v>
+      </c>
+      <c r="F225" t="n">
+        <v>2012.2888</v>
+      </c>
+      <c r="G225" t="n">
+        <v>6281.700099999994</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>237</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>254</v>
+      </c>
+      <c r="C226" t="n">
+        <v>254</v>
+      </c>
+      <c r="D226" t="n">
+        <v>254</v>
+      </c>
+      <c r="E226" t="n">
+        <v>254</v>
+      </c>
+      <c r="F226" t="n">
+        <v>3531</v>
+      </c>
+      <c r="G226" t="n">
+        <v>6281.700099999994</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>237</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>253</v>
+      </c>
+      <c r="C227" t="n">
+        <v>253</v>
+      </c>
+      <c r="D227" t="n">
+        <v>253</v>
+      </c>
+      <c r="E227" t="n">
+        <v>253</v>
+      </c>
+      <c r="F227" t="n">
+        <v>750</v>
+      </c>
+      <c r="G227" t="n">
+        <v>5531.700099999994</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>237</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>253</v>
+      </c>
+      <c r="C228" t="n">
+        <v>254</v>
+      </c>
+      <c r="D228" t="n">
+        <v>254</v>
+      </c>
+      <c r="E228" t="n">
+        <v>253</v>
+      </c>
+      <c r="F228" t="n">
+        <v>3050</v>
+      </c>
+      <c r="G228" t="n">
+        <v>8581.700099999995</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>237</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>254</v>
+      </c>
+      <c r="C229" t="n">
+        <v>255</v>
+      </c>
+      <c r="D229" t="n">
+        <v>255</v>
+      </c>
+      <c r="E229" t="n">
+        <v>254</v>
+      </c>
+      <c r="F229" t="n">
+        <v>7959.7897</v>
+      </c>
+      <c r="G229" t="n">
+        <v>16541.4898</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>237</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>255</v>
+      </c>
+      <c r="C230" t="n">
+        <v>257</v>
+      </c>
+      <c r="D230" t="n">
+        <v>257</v>
+      </c>
+      <c r="E230" t="n">
+        <v>255</v>
+      </c>
+      <c r="F230" t="n">
+        <v>21883.2087</v>
+      </c>
+      <c r="G230" t="n">
+        <v>38424.6985</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>237</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>257</v>
+      </c>
+      <c r="C231" t="n">
+        <v>258</v>
+      </c>
+      <c r="D231" t="n">
+        <v>258</v>
+      </c>
+      <c r="E231" t="n">
+        <v>256</v>
+      </c>
+      <c r="F231" t="n">
+        <v>11516.2964</v>
+      </c>
+      <c r="G231" t="n">
+        <v>49940.9949</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>237</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>258</v>
+      </c>
+      <c r="C232" t="n">
+        <v>259</v>
+      </c>
+      <c r="D232" t="n">
+        <v>259</v>
+      </c>
+      <c r="E232" t="n">
+        <v>258</v>
+      </c>
+      <c r="F232" t="n">
+        <v>29967.9667</v>
+      </c>
+      <c r="G232" t="n">
+        <v>79908.9616</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>237</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>259</v>
+      </c>
+      <c r="C233" t="n">
+        <v>261</v>
+      </c>
+      <c r="D233" t="n">
+        <v>262</v>
+      </c>
+      <c r="E233" t="n">
+        <v>259</v>
+      </c>
+      <c r="F233" t="n">
+        <v>20310.8156549618</v>
+      </c>
+      <c r="G233" t="n">
+        <v>100219.7772549618</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>237</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>261</v>
+      </c>
+      <c r="C234" t="n">
+        <v>260</v>
+      </c>
+      <c r="D234" t="n">
+        <v>261</v>
+      </c>
+      <c r="E234" t="n">
+        <v>260</v>
+      </c>
+      <c r="F234" t="n">
+        <v>6958.7423</v>
+      </c>
+      <c r="G234" t="n">
+        <v>93261.0349549618</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>237</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>260</v>
+      </c>
+      <c r="C235" t="n">
+        <v>260</v>
+      </c>
+      <c r="D235" t="n">
+        <v>261</v>
+      </c>
+      <c r="E235" t="n">
+        <v>260</v>
+      </c>
+      <c r="F235" t="n">
+        <v>8125.0574</v>
+      </c>
+      <c r="G235" t="n">
+        <v>93261.0349549618</v>
+      </c>
+      <c r="H235" t="n">
+        <v>2</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>237</v>
+      </c>
+      <c r="K235" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L221" t="n">
-        <v>1.058291139240506</v>
-      </c>
-      <c r="M221" t="n">
+      <c r="L235" t="n">
+        <v>1.09204641350211</v>
+      </c>
+      <c r="M235" t="n">
         <v>1.051282051282051</v>
       </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>251</v>
-      </c>
-      <c r="C222" t="n">
-        <v>251</v>
-      </c>
-      <c r="D222" t="n">
-        <v>251</v>
-      </c>
-      <c r="E222" t="n">
-        <v>251</v>
-      </c>
-      <c r="F222" t="n">
-        <v>24</v>
-      </c>
-      <c r="G222" t="n">
-        <v>28224.85409999999</v>
-      </c>
-      <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>252</v>
-      </c>
-      <c r="C223" t="n">
-        <v>250</v>
-      </c>
-      <c r="D223" t="n">
-        <v>255</v>
-      </c>
-      <c r="E223" t="n">
-        <v>249</v>
-      </c>
-      <c r="F223" t="n">
-        <v>23722.8193</v>
-      </c>
-      <c r="G223" t="n">
-        <v>4502.034799999994</v>
-      </c>
-      <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>254</v>
-      </c>
-      <c r="C224" t="n">
-        <v>254</v>
-      </c>
-      <c r="D224" t="n">
-        <v>254</v>
-      </c>
-      <c r="E224" t="n">
-        <v>254</v>
-      </c>
-      <c r="F224" t="n">
-        <v>1779.6653</v>
-      </c>
-      <c r="G224" t="n">
-        <v>6281.700099999994</v>
-      </c>
-      <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>254</v>
-      </c>
-      <c r="C225" t="n">
-        <v>254</v>
-      </c>
-      <c r="D225" t="n">
-        <v>254</v>
-      </c>
-      <c r="E225" t="n">
-        <v>254</v>
-      </c>
-      <c r="F225" t="n">
-        <v>2012.2888</v>
-      </c>
-      <c r="G225" t="n">
-        <v>6281.700099999994</v>
-      </c>
-      <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>254</v>
-      </c>
-      <c r="C226" t="n">
-        <v>254</v>
-      </c>
-      <c r="D226" t="n">
-        <v>254</v>
-      </c>
-      <c r="E226" t="n">
-        <v>254</v>
-      </c>
-      <c r="F226" t="n">
-        <v>3531</v>
-      </c>
-      <c r="G226" t="n">
-        <v>6281.700099999994</v>
-      </c>
-      <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>253</v>
-      </c>
-      <c r="C227" t="n">
-        <v>253</v>
-      </c>
-      <c r="D227" t="n">
-        <v>253</v>
-      </c>
-      <c r="E227" t="n">
-        <v>253</v>
-      </c>
-      <c r="F227" t="n">
-        <v>750</v>
-      </c>
-      <c r="G227" t="n">
-        <v>5531.700099999994</v>
-      </c>
-      <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>253</v>
-      </c>
-      <c r="C228" t="n">
-        <v>254</v>
-      </c>
-      <c r="D228" t="n">
-        <v>254</v>
-      </c>
-      <c r="E228" t="n">
-        <v>253</v>
-      </c>
-      <c r="F228" t="n">
-        <v>3050</v>
-      </c>
-      <c r="G228" t="n">
-        <v>8581.700099999995</v>
-      </c>
-      <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>254</v>
-      </c>
-      <c r="C229" t="n">
-        <v>255</v>
-      </c>
-      <c r="D229" t="n">
-        <v>255</v>
-      </c>
-      <c r="E229" t="n">
-        <v>254</v>
-      </c>
-      <c r="F229" t="n">
-        <v>7959.7897</v>
-      </c>
-      <c r="G229" t="n">
-        <v>16541.4898</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>255</v>
-      </c>
-      <c r="C230" t="n">
-        <v>257</v>
-      </c>
-      <c r="D230" t="n">
-        <v>257</v>
-      </c>
-      <c r="E230" t="n">
-        <v>255</v>
-      </c>
-      <c r="F230" t="n">
-        <v>21883.2087</v>
-      </c>
-      <c r="G230" t="n">
-        <v>38424.6985</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>257</v>
-      </c>
-      <c r="C231" t="n">
-        <v>258</v>
-      </c>
-      <c r="D231" t="n">
-        <v>258</v>
-      </c>
-      <c r="E231" t="n">
-        <v>256</v>
-      </c>
-      <c r="F231" t="n">
-        <v>11516.2964</v>
-      </c>
-      <c r="G231" t="n">
-        <v>49940.9949</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>258</v>
-      </c>
-      <c r="C232" t="n">
-        <v>259</v>
-      </c>
-      <c r="D232" t="n">
-        <v>259</v>
-      </c>
-      <c r="E232" t="n">
-        <v>258</v>
-      </c>
-      <c r="F232" t="n">
-        <v>29967.9667</v>
-      </c>
-      <c r="G232" t="n">
-        <v>79908.9616</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>259</v>
-      </c>
-      <c r="C233" t="n">
-        <v>261</v>
-      </c>
-      <c r="D233" t="n">
-        <v>262</v>
-      </c>
-      <c r="E233" t="n">
-        <v>259</v>
-      </c>
-      <c r="F233" t="n">
-        <v>20310.8156549618</v>
-      </c>
-      <c r="G233" t="n">
-        <v>100219.7772549618</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>261</v>
-      </c>
-      <c r="C234" t="n">
-        <v>260</v>
-      </c>
-      <c r="D234" t="n">
-        <v>261</v>
-      </c>
-      <c r="E234" t="n">
-        <v>260</v>
-      </c>
-      <c r="F234" t="n">
-        <v>6958.7423</v>
-      </c>
-      <c r="G234" t="n">
-        <v>93261.0349549618</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>260</v>
-      </c>
-      <c r="C235" t="n">
-        <v>260</v>
-      </c>
-      <c r="D235" t="n">
-        <v>261</v>
-      </c>
-      <c r="E235" t="n">
-        <v>260</v>
-      </c>
-      <c r="F235" t="n">
-        <v>8125.0574</v>
-      </c>
-      <c r="G235" t="n">
-        <v>93261.0349549618</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8391,7 +8409,7 @@
         <v>93261.0349549618</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8424,7 +8442,7 @@
         <v>88389.6707549618</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8457,7 +8475,7 @@
         <v>93860.7476549618</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8490,7 +8508,7 @@
         <v>93860.7476549618</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8523,7 +8541,7 @@
         <v>119059.9494549618</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8556,7 +8574,7 @@
         <v>112229.9755549618</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8589,7 +8607,7 @@
         <v>112241.9950549618</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8622,7 +8640,7 @@
         <v>107794.0456549618</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8655,7 +8673,7 @@
         <v>107621.6319549618</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8688,7 +8706,7 @@
         <v>107622.6319549618</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8721,7 +8739,7 @@
         <v>114931.3727549618</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8754,7 +8772,7 @@
         <v>97962.76155496179</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8787,7 +8805,7 @@
         <v>97962.76155496179</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8820,7 +8838,7 @@
         <v>97962.76155496179</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8853,7 +8871,7 @@
         <v>97963.76155496179</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8886,7 +8904,7 @@
         <v>96661.76155496179</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8919,7 +8937,7 @@
         <v>92318.76155496179</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9051,7 +9069,7 @@
         <v>96612.5668549618</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9084,7 +9102,7 @@
         <v>94155.83635496179</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9117,7 +9135,7 @@
         <v>95155.83635496179</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9216,7 +9234,7 @@
         <v>104841.1983549618</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9249,7 +9267,7 @@
         <v>115739.6184549618</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9282,7 +9300,7 @@
         <v>112171.4721549618</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9315,7 +9333,7 @@
         <v>113024.0459549618</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9348,7 +9366,7 @@
         <v>111465.8881549618</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9381,7 +9399,7 @@
         <v>111465.8881549618</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9414,7 +9432,7 @@
         <v>111507.8881549618</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9447,7 +9465,7 @@
         <v>109851.8881549618</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9480,7 +9498,7 @@
         <v>109851.8881549618</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9513,7 +9531,7 @@
         <v>108056.0657549618</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10833,7 +10851,7 @@
         <v>-52616.98834503821</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
